--- a/MatthewTuck_Honours/raw_data/Matthew's Trait Database (the important copy).xlsx
+++ b/MatthewTuck_Honours/raw_data/Matthew's Trait Database (the important copy).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/292c67f149de0640/Documents/GitHub/Matthew-Tuck-honours/MatthewTuck_Honours/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3504" documentId="8_{A53AC4EE-27A7-4A1A-BDA4-E4ED5F6CBDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED3BB866-53D0-4D2F-AC79-69A393C02C1C}"/>
+  <xr:revisionPtr revIDLastSave="3506" documentId="8_{A53AC4EE-27A7-4A1A-BDA4-E4ED5F6CBDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A04ABF3-DC87-409E-9305-743D862A6484}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43DB4CFE-BFCC-4DF0-B966-D66D5A42FD2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{43DB4CFE-BFCC-4DF0-B966-D66D5A42FD2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Matthew's Trait dataset" sheetId="1" r:id="rId1"/>
@@ -4747,6 +4747,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4754,21 +4769,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4780,14 +4780,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5130,9 +5130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD1AE5A-DEB3-4CAB-B20E-40E6200E4806}">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI46" sqref="AI46"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12540,10 +12540,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33">
+      <c r="B1" s="21">
         <v>1.8548390000000001E-2</v>
       </c>
       <c r="C1" t="s">
@@ -12551,10 +12551,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="21">
         <v>1.8548390000000001E-2</v>
       </c>
       <c r="C2" t="s">
@@ -12562,10 +12562,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="21">
         <v>2.9032260000000001E-2</v>
       </c>
       <c r="C3" t="s">
@@ -12573,10 +12573,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="21">
         <v>2.9032260000000001E-2</v>
       </c>
       <c r="C4" t="s">
@@ -12584,10 +12584,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="21">
         <v>2.9347829999999998E-2</v>
       </c>
       <c r="C5" t="s">
@@ -12595,10 +12595,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="21">
         <v>4.0322579999999997E-2</v>
       </c>
       <c r="C6" t="s">
@@ -12606,10 +12606,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="21">
         <v>4.0322579999999997E-2</v>
       </c>
       <c r="C7" t="s">
@@ -12617,10 +12617,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="21">
         <v>4.0322579999999997E-2</v>
       </c>
       <c r="C8" t="s">
@@ -12628,10 +12628,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="21">
         <v>4.0322579999999997E-2</v>
       </c>
       <c r="C9" t="s">
@@ -12639,10 +12639,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="21">
         <v>4.1129029999999997E-2</v>
       </c>
       <c r="C10" t="s">
@@ -12650,10 +12650,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="21">
         <v>4.3548389999999999E-2</v>
       </c>
       <c r="C11" t="s">
@@ -12661,10 +12661,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="21">
         <v>5.0675680000000001E-2</v>
       </c>
       <c r="C12" t="s">
@@ -12672,10 +12672,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="21">
         <v>5.4824560000000001E-2</v>
       </c>
       <c r="C13" t="s">
@@ -12683,10 +12683,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="21">
         <v>5.5664060000000001E-2</v>
       </c>
       <c r="C14" t="s">
@@ -12694,10 +12694,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="21">
         <v>6.6921339999999996E-2</v>
       </c>
       <c r="C15" t="s">
@@ -12705,10 +12705,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="21">
         <v>7.2580649999999997E-2</v>
       </c>
       <c r="C16" t="s">
@@ -12716,10 +12716,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="21">
         <v>7.6923110000000003E-2</v>
       </c>
       <c r="C17" t="s">
@@ -12727,10 +12727,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="21">
         <v>7.6923110000000003E-2</v>
       </c>
       <c r="C18" t="s">
@@ -12738,10 +12738,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="21">
         <v>7.9347829999999994E-2</v>
       </c>
       <c r="C19" t="s">
@@ -12749,10 +12749,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="21">
         <v>9.7844710000000001E-2</v>
       </c>
       <c r="C20" t="s">
@@ -12760,10 +12760,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="21">
         <v>9.9212449999999994E-2</v>
       </c>
       <c r="C21" t="s">
@@ -12771,10 +12771,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="21">
         <v>9.9212449999999994E-2</v>
       </c>
       <c r="C22" t="s">
@@ -12782,10 +12782,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="21">
         <v>0.11776084000000001</v>
       </c>
       <c r="C23" t="s">
@@ -12793,10 +12793,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="21">
         <v>0.125</v>
       </c>
       <c r="C24" t="s">
@@ -12804,10 +12804,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="21">
         <v>0.125</v>
       </c>
       <c r="C25" t="s">
@@ -12815,10 +12815,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="21">
         <v>0.13709677000000001</v>
       </c>
       <c r="C26" t="s">
@@ -12826,10 +12826,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="21">
         <v>0.14130435</v>
       </c>
       <c r="C27" t="s">
@@ -12837,10 +12837,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="21">
         <v>0.16532258</v>
       </c>
       <c r="C28" t="s">
@@ -12848,10 +12848,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="21">
         <v>0.16532258</v>
       </c>
       <c r="C29" t="s">
@@ -12859,10 +12859,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="21">
         <v>0.16854838999999999</v>
       </c>
       <c r="C30" t="s">
@@ -12870,10 +12870,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="21">
         <v>0.17205715999999999</v>
       </c>
       <c r="C31" t="s">
@@ -12881,10 +12881,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="21">
         <v>1.209677E-2</v>
       </c>
       <c r="C32" t="s">
@@ -12892,10 +12892,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="21">
         <v>2.9347829999999998E-2</v>
       </c>
       <c r="C33" t="s">
@@ -12903,10 +12903,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="21">
         <v>4.3548389999999999E-2</v>
       </c>
       <c r="C34" t="s">
@@ -12914,10 +12914,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="21">
         <v>4.3548389999999999E-2</v>
       </c>
       <c r="C35" t="s">
@@ -12925,10 +12925,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="21">
         <v>6.6921339999999996E-2</v>
       </c>
       <c r="C36" t="s">
@@ -12936,10 +12936,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="21">
         <v>8.1432710000000005E-2</v>
       </c>
       <c r="C37" t="s">
@@ -12947,10 +12947,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="21">
         <v>9.5953590000000005E-2</v>
       </c>
       <c r="C38" t="s">
@@ -12958,10 +12958,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="21">
         <v>9.5953590000000005E-2</v>
       </c>
       <c r="C39" t="s">
@@ -12969,10 +12969,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="21">
         <v>0.10220732</v>
       </c>
       <c r="C40" t="s">
@@ -12980,10 +12980,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="21">
         <v>0.11776084000000001</v>
       </c>
       <c r="C41" t="s">
@@ -12991,10 +12991,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="21">
         <v>0.125</v>
       </c>
       <c r="C42" t="s">
@@ -13002,10 +13002,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="21">
         <v>0.125</v>
       </c>
       <c r="C43" t="s">
@@ -13013,10 +13013,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="21">
         <v>0.12945135999999999</v>
       </c>
       <c r="C44" t="s">
@@ -13024,10 +13024,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="21">
         <v>0.16532258</v>
       </c>
       <c r="C45" t="s">
@@ -13035,10 +13035,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="21">
         <v>0.17581954999999999</v>
       </c>
       <c r="C46" t="s">
@@ -13046,10 +13046,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="21">
         <v>0.17708066</v>
       </c>
       <c r="C47" t="s">
@@ -15743,8 +15743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D1FF8E-A6B0-4472-BC16-941E3BA8D8EB}">
   <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15869,9 +15869,9 @@
         <f t="array" ref="J2">_xlfn.IFS('Matthew''s Trait dataset'!K2="High", 1, 'Matthew''s Trait dataset'!K2="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="e" cm="1">
-        <f t="array" ref="K2">_xlfn.IFS('Matthew''s Trait dataset'!L2="Long Baleen", "A", 'Matthew''s Trait dataset'!L2="Short Baleen", "B", 'Matthew''s Trait dataset'!L2="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L2="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K2" s="4" t="str" cm="1">
+        <f t="array" ref="K2">_xlfn.IFS('Matthew''s Trait dataset'!L2="LB", "A", 'Matthew''s Trait dataset'!L2="SB", "B", 'Matthew''s Trait dataset'!L2="FCT", "C", 'Matthew''s Trait dataset'!L2="NFCT", "D")</f>
+        <v>A</v>
       </c>
       <c r="L2" s="4" cm="1">
         <f t="array" ref="L2">_xlfn.IFS('Matthew''s Trait dataset'!N2="High", 1, 'Matthew''s Trait dataset'!N2="Low", 0)</f>
@@ -15945,9 +15945,9 @@
         <f t="array" ref="J3">_xlfn.IFS('Matthew''s Trait dataset'!K3="High", 1, 'Matthew''s Trait dataset'!K3="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="e" cm="1">
-        <f t="array" ref="K3">_xlfn.IFS('Matthew''s Trait dataset'!L3="Long Baleen", "A", 'Matthew''s Trait dataset'!L3="Short Baleen", "B", 'Matthew''s Trait dataset'!L3="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L3="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K3" s="4" t="str" cm="1">
+        <f t="array" ref="K3">_xlfn.IFS('Matthew''s Trait dataset'!L3="LB", "A", 'Matthew''s Trait dataset'!L3="SB", "B", 'Matthew''s Trait dataset'!L3="FCT", "C", 'Matthew''s Trait dataset'!L3="NFCT", "D")</f>
+        <v>B</v>
       </c>
       <c r="L3" s="4" cm="1">
         <f t="array" ref="L3">_xlfn.IFS('Matthew''s Trait dataset'!N3="High", 1, 'Matthew''s Trait dataset'!N3="Low", 0)</f>
@@ -16021,9 +16021,9 @@
         <f t="array" ref="J4">_xlfn.IFS('Matthew''s Trait dataset'!K4="High", 1, 'Matthew''s Trait dataset'!K4="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="e" cm="1">
-        <f t="array" ref="K4">_xlfn.IFS('Matthew''s Trait dataset'!L4="Long Baleen", "A", 'Matthew''s Trait dataset'!L4="Short Baleen", "B", 'Matthew''s Trait dataset'!L4="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L4="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K4" s="4" t="str" cm="1">
+        <f t="array" ref="K4">_xlfn.IFS('Matthew''s Trait dataset'!L4="LB", "A", 'Matthew''s Trait dataset'!L4="SB", "B", 'Matthew''s Trait dataset'!L4="FCT", "C", 'Matthew''s Trait dataset'!L4="NFCT", "D")</f>
+        <v>B</v>
       </c>
       <c r="L4" s="4" cm="1">
         <f t="array" ref="L4">_xlfn.IFS('Matthew''s Trait dataset'!N4="High", 1, 'Matthew''s Trait dataset'!N4="Low", 0)</f>
@@ -16097,9 +16097,9 @@
         <f t="array" ref="J5">_xlfn.IFS('Matthew''s Trait dataset'!K5="High", 1, 'Matthew''s Trait dataset'!K5="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="4" t="e" cm="1">
-        <f t="array" ref="K5">_xlfn.IFS('Matthew''s Trait dataset'!L5="Long Baleen", "A", 'Matthew''s Trait dataset'!L5="Short Baleen", "B", 'Matthew''s Trait dataset'!L5="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L5="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K5" s="4" t="str" cm="1">
+        <f t="array" ref="K5">_xlfn.IFS('Matthew''s Trait dataset'!L5="LB", "A", 'Matthew''s Trait dataset'!L5="SB", "B", 'Matthew''s Trait dataset'!L5="FCT", "C", 'Matthew''s Trait dataset'!L5="NFCT", "D")</f>
+        <v>B</v>
       </c>
       <c r="L5" s="4" cm="1">
         <f t="array" ref="L5">_xlfn.IFS('Matthew''s Trait dataset'!N5="High", 1, 'Matthew''s Trait dataset'!N5="Low", 0)</f>
@@ -16173,9 +16173,9 @@
         <f t="array" ref="J6">_xlfn.IFS('Matthew''s Trait dataset'!K6="High", 1, 'Matthew''s Trait dataset'!K6="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="4" t="e" cm="1">
-        <f t="array" ref="K6">_xlfn.IFS('Matthew''s Trait dataset'!L6="Long Baleen", "A", 'Matthew''s Trait dataset'!L6="Short Baleen", "B", 'Matthew''s Trait dataset'!L6="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L6="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K6" s="4" t="str" cm="1">
+        <f t="array" ref="K6">_xlfn.IFS('Matthew''s Trait dataset'!L6="LB", "A", 'Matthew''s Trait dataset'!L6="SB", "B", 'Matthew''s Trait dataset'!L6="FCT", "C", 'Matthew''s Trait dataset'!L6="NFCT", "D")</f>
+        <v>B</v>
       </c>
       <c r="L6" s="4" cm="1">
         <f t="array" ref="L6">_xlfn.IFS('Matthew''s Trait dataset'!N6="High", 1, 'Matthew''s Trait dataset'!N6="Low", 0)</f>
@@ -16249,9 +16249,9 @@
         <f t="array" ref="J7">_xlfn.IFS('Matthew''s Trait dataset'!K7="High", 1, 'Matthew''s Trait dataset'!K7="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="4" t="e" cm="1">
-        <f t="array" ref="K7">_xlfn.IFS('Matthew''s Trait dataset'!L7="Long Baleen", "A", 'Matthew''s Trait dataset'!L7="Short Baleen", "B", 'Matthew''s Trait dataset'!L7="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L7="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K7" s="4" t="str" cm="1">
+        <f t="array" ref="K7">_xlfn.IFS('Matthew''s Trait dataset'!L7="LB", "A", 'Matthew''s Trait dataset'!L7="SB", "B", 'Matthew''s Trait dataset'!L7="FCT", "C", 'Matthew''s Trait dataset'!L7="NFCT", "D")</f>
+        <v>B</v>
       </c>
       <c r="L7" s="4" cm="1">
         <f t="array" ref="L7">_xlfn.IFS('Matthew''s Trait dataset'!N7="High", 1, 'Matthew''s Trait dataset'!N7="Low", 0)</f>
@@ -16325,9 +16325,9 @@
         <f t="array" ref="J8">_xlfn.IFS('Matthew''s Trait dataset'!K8="High", 1, 'Matthew''s Trait dataset'!K8="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="4" t="e" cm="1">
-        <f t="array" ref="K8">_xlfn.IFS('Matthew''s Trait dataset'!L8="Long Baleen", "A", 'Matthew''s Trait dataset'!L8="Short Baleen", "B", 'Matthew''s Trait dataset'!L8="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L8="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K8" s="4" t="str" cm="1">
+        <f t="array" ref="K8">_xlfn.IFS('Matthew''s Trait dataset'!L8="LB", "A", 'Matthew''s Trait dataset'!L8="SB", "B", 'Matthew''s Trait dataset'!L8="FCT", "C", 'Matthew''s Trait dataset'!L8="NFCT", "D")</f>
+        <v>B</v>
       </c>
       <c r="L8" s="4" cm="1">
         <f t="array" ref="L8">_xlfn.IFS('Matthew''s Trait dataset'!N8="High", 1, 'Matthew''s Trait dataset'!N8="Low", 0)</f>
@@ -16401,9 +16401,9 @@
         <f t="array" ref="J9">_xlfn.IFS('Matthew''s Trait dataset'!K9="High", 1, 'Matthew''s Trait dataset'!K9="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="4" t="e" cm="1">
-        <f t="array" ref="K9">_xlfn.IFS('Matthew''s Trait dataset'!L9="Long Baleen", "A", 'Matthew''s Trait dataset'!L9="Short Baleen", "B", 'Matthew''s Trait dataset'!L9="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L9="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K9" s="4" t="str" cm="1">
+        <f t="array" ref="K9">_xlfn.IFS('Matthew''s Trait dataset'!L9="LB", "A", 'Matthew''s Trait dataset'!L9="SB", "B", 'Matthew''s Trait dataset'!L9="FCT", "C", 'Matthew''s Trait dataset'!L9="NFCT", "D")</f>
+        <v>B</v>
       </c>
       <c r="L9" s="4" cm="1">
         <f t="array" ref="L9">_xlfn.IFS('Matthew''s Trait dataset'!N9="High", 1, 'Matthew''s Trait dataset'!N9="Low", 0)</f>
@@ -16477,9 +16477,9 @@
         <f t="array" ref="J10">_xlfn.IFS('Matthew''s Trait dataset'!K10="High", 1, 'Matthew''s Trait dataset'!K10="Low", 0)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="4" t="e" cm="1">
-        <f t="array" ref="K10">_xlfn.IFS('Matthew''s Trait dataset'!L10="Long Baleen", "A", 'Matthew''s Trait dataset'!L10="Short Baleen", "B", 'Matthew''s Trait dataset'!L10="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L10="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K10" s="4" t="str" cm="1">
+        <f t="array" ref="K10">_xlfn.IFS('Matthew''s Trait dataset'!L10="LB", "A", 'Matthew''s Trait dataset'!L10="SB", "B", 'Matthew''s Trait dataset'!L10="FCT", "C", 'Matthew''s Trait dataset'!L10="NFCT", "D")</f>
+        <v>B</v>
       </c>
       <c r="L10" s="4" cm="1">
         <f t="array" ref="L10">_xlfn.IFS('Matthew''s Trait dataset'!N10="High", 1, 'Matthew''s Trait dataset'!N10="Low", 0)</f>
@@ -16553,9 +16553,9 @@
         <f t="array" ref="J11">_xlfn.IFS('Matthew''s Trait dataset'!K11="High", 1, 'Matthew''s Trait dataset'!K11="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K11" s="4" t="e" cm="1">
-        <f t="array" ref="K11">_xlfn.IFS('Matthew''s Trait dataset'!L11="Long Baleen", "A", 'Matthew''s Trait dataset'!L11="Short Baleen", "B", 'Matthew''s Trait dataset'!L11="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L11="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K11" s="4" t="str" cm="1">
+        <f t="array" ref="K11">_xlfn.IFS('Matthew''s Trait dataset'!L11="LB", "A", 'Matthew''s Trait dataset'!L11="SB", "B", 'Matthew''s Trait dataset'!L11="FCT", "C", 'Matthew''s Trait dataset'!L11="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L11" s="4" cm="1">
         <f t="array" ref="L11">_xlfn.IFS('Matthew''s Trait dataset'!N11="High", 1, 'Matthew''s Trait dataset'!N11="Low", 0)</f>
@@ -16629,9 +16629,9 @@
         <f t="array" ref="J12">_xlfn.IFS('Matthew''s Trait dataset'!K12="High", 1, 'Matthew''s Trait dataset'!K12="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="4" t="e" cm="1">
-        <f t="array" ref="K12">_xlfn.IFS('Matthew''s Trait dataset'!L12="Long Baleen", "A", 'Matthew''s Trait dataset'!L12="Short Baleen", "B", 'Matthew''s Trait dataset'!L12="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L12="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K12" s="4" t="str" cm="1">
+        <f t="array" ref="K12">_xlfn.IFS('Matthew''s Trait dataset'!L12="LB", "A", 'Matthew''s Trait dataset'!L12="SB", "B", 'Matthew''s Trait dataset'!L12="FCT", "C", 'Matthew''s Trait dataset'!L12="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L12" s="4" cm="1">
         <f t="array" ref="L12">_xlfn.IFS('Matthew''s Trait dataset'!N12="High", 1, 'Matthew''s Trait dataset'!N12="Low", 0)</f>
@@ -16705,9 +16705,9 @@
         <f t="array" ref="J13">_xlfn.IFS('Matthew''s Trait dataset'!K13="High", 1, 'Matthew''s Trait dataset'!K13="Low", 0)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="4" t="e" cm="1">
-        <f t="array" ref="K13">_xlfn.IFS('Matthew''s Trait dataset'!L13="Long Baleen", "A", 'Matthew''s Trait dataset'!L13="Short Baleen", "B", 'Matthew''s Trait dataset'!L13="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L13="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K13" s="4" t="str" cm="1">
+        <f t="array" ref="K13">_xlfn.IFS('Matthew''s Trait dataset'!L13="LB", "A", 'Matthew''s Trait dataset'!L13="SB", "B", 'Matthew''s Trait dataset'!L13="FCT", "C", 'Matthew''s Trait dataset'!L13="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L13" s="4" cm="1">
         <f t="array" ref="L13">_xlfn.IFS('Matthew''s Trait dataset'!N13="High", 1, 'Matthew''s Trait dataset'!N13="Low", 0)</f>
@@ -16781,9 +16781,9 @@
         <f t="array" ref="J14">_xlfn.IFS('Matthew''s Trait dataset'!K14="High", 1, 'Matthew''s Trait dataset'!K14="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K14" s="4" t="e" cm="1">
-        <f t="array" ref="K14">_xlfn.IFS('Matthew''s Trait dataset'!L14="Long Baleen", "A", 'Matthew''s Trait dataset'!L14="Short Baleen", "B", 'Matthew''s Trait dataset'!L14="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L14="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K14" s="4" t="str" cm="1">
+        <f t="array" ref="K14">_xlfn.IFS('Matthew''s Trait dataset'!L14="LB", "A", 'Matthew''s Trait dataset'!L14="SB", "B", 'Matthew''s Trait dataset'!L14="FCT", "C", 'Matthew''s Trait dataset'!L14="NFCT", "D")</f>
+        <v>B</v>
       </c>
       <c r="L14" s="4" cm="1">
         <f t="array" ref="L14">_xlfn.IFS('Matthew''s Trait dataset'!N14="High", 1, 'Matthew''s Trait dataset'!N14="Low", 0)</f>
@@ -16857,9 +16857,9 @@
         <f t="array" ref="J15">_xlfn.IFS('Matthew''s Trait dataset'!K15="High", 1, 'Matthew''s Trait dataset'!K15="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K15" s="4" t="e" cm="1">
-        <f t="array" ref="K15">_xlfn.IFS('Matthew''s Trait dataset'!L15="Long Baleen", "A", 'Matthew''s Trait dataset'!L15="Short Baleen", "B", 'Matthew''s Trait dataset'!L15="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L15="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K15" s="4" t="str" cm="1">
+        <f t="array" ref="K15">_xlfn.IFS('Matthew''s Trait dataset'!L15="LB", "A", 'Matthew''s Trait dataset'!L15="SB", "B", 'Matthew''s Trait dataset'!L15="FCT", "C", 'Matthew''s Trait dataset'!L15="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L15" s="4" cm="1">
         <f t="array" ref="L15">_xlfn.IFS('Matthew''s Trait dataset'!N15="High", 1, 'Matthew''s Trait dataset'!N15="Low", 0)</f>
@@ -16933,9 +16933,9 @@
         <f t="array" ref="J16">_xlfn.IFS('Matthew''s Trait dataset'!K16="High", 1, 'Matthew''s Trait dataset'!K16="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="4" t="e" cm="1">
-        <f t="array" ref="K16">_xlfn.IFS('Matthew''s Trait dataset'!L16="Long Baleen", "A", 'Matthew''s Trait dataset'!L16="Short Baleen", "B", 'Matthew''s Trait dataset'!L16="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L16="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K16" s="4" t="str" cm="1">
+        <f t="array" ref="K16">_xlfn.IFS('Matthew''s Trait dataset'!L16="LB", "A", 'Matthew''s Trait dataset'!L16="SB", "B", 'Matthew''s Trait dataset'!L16="FCT", "C", 'Matthew''s Trait dataset'!L16="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L16" s="4" cm="1">
         <f t="array" ref="L16">_xlfn.IFS('Matthew''s Trait dataset'!N16="High", 1, 'Matthew''s Trait dataset'!N16="Low", 0)</f>
@@ -17009,9 +17009,9 @@
         <f t="array" ref="J17">_xlfn.IFS('Matthew''s Trait dataset'!K17="High", 1, 'Matthew''s Trait dataset'!K17="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K17" s="4" t="e" cm="1">
-        <f t="array" ref="K17">_xlfn.IFS('Matthew''s Trait dataset'!L17="Long Baleen", "A", 'Matthew''s Trait dataset'!L17="Short Baleen", "B", 'Matthew''s Trait dataset'!L17="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L17="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K17" s="4" t="str" cm="1">
+        <f t="array" ref="K17">_xlfn.IFS('Matthew''s Trait dataset'!L17="LB", "A", 'Matthew''s Trait dataset'!L17="SB", "B", 'Matthew''s Trait dataset'!L17="FCT", "C", 'Matthew''s Trait dataset'!L17="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L17" s="4" cm="1">
         <f t="array" ref="L17">_xlfn.IFS('Matthew''s Trait dataset'!N17="High", 1, 'Matthew''s Trait dataset'!N17="Low", 0)</f>
@@ -17085,9 +17085,9 @@
         <f t="array" ref="J18">_xlfn.IFS('Matthew''s Trait dataset'!K18="High", 1, 'Matthew''s Trait dataset'!K18="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K18" s="4" t="e" cm="1">
-        <f t="array" ref="K18">_xlfn.IFS('Matthew''s Trait dataset'!L18="Long Baleen", "A", 'Matthew''s Trait dataset'!L18="Short Baleen", "B", 'Matthew''s Trait dataset'!L18="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L18="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K18" s="4" t="str" cm="1">
+        <f t="array" ref="K18">_xlfn.IFS('Matthew''s Trait dataset'!L18="LB", "A", 'Matthew''s Trait dataset'!L18="SB", "B", 'Matthew''s Trait dataset'!L18="FCT", "C", 'Matthew''s Trait dataset'!L18="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L18" s="4" cm="1">
         <f t="array" ref="L18">_xlfn.IFS('Matthew''s Trait dataset'!N18="High", 1, 'Matthew''s Trait dataset'!N18="Low", 0)</f>
@@ -17161,9 +17161,9 @@
         <f t="array" ref="J19">_xlfn.IFS('Matthew''s Trait dataset'!K19="High", 1, 'Matthew''s Trait dataset'!K19="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K19" s="4" t="e" cm="1">
-        <f t="array" ref="K19">_xlfn.IFS('Matthew''s Trait dataset'!L19="Long Baleen", "A", 'Matthew''s Trait dataset'!L19="Short Baleen", "B", 'Matthew''s Trait dataset'!L19="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L19="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K19" s="4" t="str" cm="1">
+        <f t="array" ref="K19">_xlfn.IFS('Matthew''s Trait dataset'!L19="LB", "A", 'Matthew''s Trait dataset'!L19="SB", "B", 'Matthew''s Trait dataset'!L19="FCT", "C", 'Matthew''s Trait dataset'!L19="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L19" s="4" cm="1">
         <f t="array" ref="L19">_xlfn.IFS('Matthew''s Trait dataset'!N19="High", 1, 'Matthew''s Trait dataset'!N19="Low", 0)</f>
@@ -17237,9 +17237,9 @@
         <f t="array" ref="J20">_xlfn.IFS('Matthew''s Trait dataset'!K20="High", 1, 'Matthew''s Trait dataset'!K20="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K20" s="4" t="e" cm="1">
-        <f t="array" ref="K20">_xlfn.IFS('Matthew''s Trait dataset'!L20="Long Baleen", "A", 'Matthew''s Trait dataset'!L20="Short Baleen", "B", 'Matthew''s Trait dataset'!L20="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L20="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K20" s="4" t="str" cm="1">
+        <f t="array" ref="K20">_xlfn.IFS('Matthew''s Trait dataset'!L20="LB", "A", 'Matthew''s Trait dataset'!L20="SB", "B", 'Matthew''s Trait dataset'!L20="FCT", "C", 'Matthew''s Trait dataset'!L20="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L20" s="4" cm="1">
         <f t="array" ref="L20">_xlfn.IFS('Matthew''s Trait dataset'!N20="High", 1, 'Matthew''s Trait dataset'!N20="Low", 0)</f>
@@ -17313,9 +17313,9 @@
         <f t="array" ref="J21">_xlfn.IFS('Matthew''s Trait dataset'!K21="High", 1, 'Matthew''s Trait dataset'!K21="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K21" s="4" t="e" cm="1">
-        <f t="array" ref="K21">_xlfn.IFS('Matthew''s Trait dataset'!L21="Long Baleen", "A", 'Matthew''s Trait dataset'!L21="Short Baleen", "B", 'Matthew''s Trait dataset'!L21="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L21="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K21" s="4" t="str" cm="1">
+        <f t="array" ref="K21">_xlfn.IFS('Matthew''s Trait dataset'!L21="LB", "A", 'Matthew''s Trait dataset'!L21="SB", "B", 'Matthew''s Trait dataset'!L21="FCT", "C", 'Matthew''s Trait dataset'!L21="NFCT", "D")</f>
+        <v>B</v>
       </c>
       <c r="L21" s="4" cm="1">
         <f t="array" ref="L21">_xlfn.IFS('Matthew''s Trait dataset'!N21="High", 1, 'Matthew''s Trait dataset'!N21="Low", 0)</f>
@@ -17389,9 +17389,9 @@
         <f t="array" ref="J22">_xlfn.IFS('Matthew''s Trait dataset'!K22="High", 1, 'Matthew''s Trait dataset'!K22="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K22" s="4" t="e" cm="1">
-        <f t="array" ref="K22">_xlfn.IFS('Matthew''s Trait dataset'!L22="Long Baleen", "A", 'Matthew''s Trait dataset'!L22="Short Baleen", "B", 'Matthew''s Trait dataset'!L22="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L22="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K22" s="4" t="str" cm="1">
+        <f t="array" ref="K22">_xlfn.IFS('Matthew''s Trait dataset'!L22="LB", "A", 'Matthew''s Trait dataset'!L22="SB", "B", 'Matthew''s Trait dataset'!L22="FCT", "C", 'Matthew''s Trait dataset'!L22="NFCT", "D")</f>
+        <v>A</v>
       </c>
       <c r="L22" s="4" cm="1">
         <f t="array" ref="L22">_xlfn.IFS('Matthew''s Trait dataset'!N22="High", 1, 'Matthew''s Trait dataset'!N22="Low", 0)</f>
@@ -17465,9 +17465,9 @@
         <f t="array" ref="J23">_xlfn.IFS('Matthew''s Trait dataset'!K23="High", 1, 'Matthew''s Trait dataset'!K23="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K23" s="4" t="e" cm="1">
-        <f t="array" ref="K23">_xlfn.IFS('Matthew''s Trait dataset'!L23="Long Baleen", "A", 'Matthew''s Trait dataset'!L23="Short Baleen", "B", 'Matthew''s Trait dataset'!L23="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L23="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K23" s="4" t="str" cm="1">
+        <f t="array" ref="K23">_xlfn.IFS('Matthew''s Trait dataset'!L23="LB", "A", 'Matthew''s Trait dataset'!L23="SB", "B", 'Matthew''s Trait dataset'!L23="FCT", "C", 'Matthew''s Trait dataset'!L23="NFCT", "D")</f>
+        <v>A</v>
       </c>
       <c r="L23" s="4" cm="1">
         <f t="array" ref="L23">_xlfn.IFS('Matthew''s Trait dataset'!N23="High", 1, 'Matthew''s Trait dataset'!N23="Low", 0)</f>
@@ -17541,9 +17541,9 @@
         <f t="array" ref="J24">_xlfn.IFS('Matthew''s Trait dataset'!K24="High", 1, 'Matthew''s Trait dataset'!K24="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K24" s="4" t="e" cm="1">
-        <f t="array" ref="K24">_xlfn.IFS('Matthew''s Trait dataset'!L24="Long Baleen", "A", 'Matthew''s Trait dataset'!L24="Short Baleen", "B", 'Matthew''s Trait dataset'!L24="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L24="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K24" s="4" t="str" cm="1">
+        <f t="array" ref="K24">_xlfn.IFS('Matthew''s Trait dataset'!L24="LB", "A", 'Matthew''s Trait dataset'!L24="SB", "B", 'Matthew''s Trait dataset'!L24="FCT", "C", 'Matthew''s Trait dataset'!L24="NFCT", "D")</f>
+        <v>A</v>
       </c>
       <c r="L24" s="4" cm="1">
         <f t="array" ref="L24">_xlfn.IFS('Matthew''s Trait dataset'!N24="High", 1, 'Matthew''s Trait dataset'!N24="Low", 0)</f>
@@ -17617,9 +17617,9 @@
         <f t="array" ref="J25">_xlfn.IFS('Matthew''s Trait dataset'!K25="High", 1, 'Matthew''s Trait dataset'!K25="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K25" s="4" t="e" cm="1">
-        <f t="array" ref="K25">_xlfn.IFS('Matthew''s Trait dataset'!L25="Long Baleen", "A", 'Matthew''s Trait dataset'!L25="Short Baleen", "B", 'Matthew''s Trait dataset'!L25="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L25="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K25" s="4" t="str" cm="1">
+        <f t="array" ref="K25">_xlfn.IFS('Matthew''s Trait dataset'!L25="LB", "A", 'Matthew''s Trait dataset'!L25="SB", "B", 'Matthew''s Trait dataset'!L25="FCT", "C", 'Matthew''s Trait dataset'!L25="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L25" s="4" cm="1">
         <f t="array" ref="L25">_xlfn.IFS('Matthew''s Trait dataset'!N25="High", 1, 'Matthew''s Trait dataset'!N25="Low", 0)</f>
@@ -17693,9 +17693,9 @@
         <f t="array" ref="J26">_xlfn.IFS('Matthew''s Trait dataset'!K26="High", 1, 'Matthew''s Trait dataset'!K26="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K26" s="4" t="e" cm="1">
-        <f t="array" ref="K26">_xlfn.IFS('Matthew''s Trait dataset'!L26="Long Baleen", "A", 'Matthew''s Trait dataset'!L26="Short Baleen", "B", 'Matthew''s Trait dataset'!L26="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L26="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K26" s="4" t="str" cm="1">
+        <f t="array" ref="K26">_xlfn.IFS('Matthew''s Trait dataset'!L26="LB", "A", 'Matthew''s Trait dataset'!L26="SB", "B", 'Matthew''s Trait dataset'!L26="FCT", "C", 'Matthew''s Trait dataset'!L26="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L26" s="4" cm="1">
         <f t="array" ref="L26">_xlfn.IFS('Matthew''s Trait dataset'!N26="High", 1, 'Matthew''s Trait dataset'!N26="Low", 0)</f>
@@ -17769,9 +17769,9 @@
         <f t="array" ref="J27">_xlfn.IFS('Matthew''s Trait dataset'!K27="High", 1, 'Matthew''s Trait dataset'!K27="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K27" s="4" t="e" cm="1">
-        <f t="array" ref="K27">_xlfn.IFS('Matthew''s Trait dataset'!L27="Long Baleen", "A", 'Matthew''s Trait dataset'!L27="Short Baleen", "B", 'Matthew''s Trait dataset'!L27="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L27="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K27" s="4" t="str" cm="1">
+        <f t="array" ref="K27">_xlfn.IFS('Matthew''s Trait dataset'!L27="LB", "A", 'Matthew''s Trait dataset'!L27="SB", "B", 'Matthew''s Trait dataset'!L27="FCT", "C", 'Matthew''s Trait dataset'!L27="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L27" s="4" cm="1">
         <f t="array" ref="L27">_xlfn.IFS('Matthew''s Trait dataset'!N27="High", 1, 'Matthew''s Trait dataset'!N27="Low", 0)</f>
@@ -17845,9 +17845,9 @@
         <f t="array" ref="J28">_xlfn.IFS('Matthew''s Trait dataset'!K28="High", 1, 'Matthew''s Trait dataset'!K28="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K28" s="4" t="e" cm="1">
-        <f t="array" ref="K28">_xlfn.IFS('Matthew''s Trait dataset'!L28="Long Baleen", "A", 'Matthew''s Trait dataset'!L28="Short Baleen", "B", 'Matthew''s Trait dataset'!L28="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L28="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K28" s="4" t="str" cm="1">
+        <f t="array" ref="K28">_xlfn.IFS('Matthew''s Trait dataset'!L28="LB", "A", 'Matthew''s Trait dataset'!L28="SB", "B", 'Matthew''s Trait dataset'!L28="FCT", "C", 'Matthew''s Trait dataset'!L28="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L28" s="4" cm="1">
         <f t="array" ref="L28">_xlfn.IFS('Matthew''s Trait dataset'!N28="High", 1, 'Matthew''s Trait dataset'!N28="Low", 0)</f>
@@ -17921,9 +17921,9 @@
         <f t="array" ref="J29">_xlfn.IFS('Matthew''s Trait dataset'!K29="High", 1, 'Matthew''s Trait dataset'!K29="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K29" s="4" t="e" cm="1">
-        <f t="array" ref="K29">_xlfn.IFS('Matthew''s Trait dataset'!L29="Long Baleen", "A", 'Matthew''s Trait dataset'!L29="Short Baleen", "B", 'Matthew''s Trait dataset'!L29="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L29="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K29" s="4" t="str" cm="1">
+        <f t="array" ref="K29">_xlfn.IFS('Matthew''s Trait dataset'!L29="LB", "A", 'Matthew''s Trait dataset'!L29="SB", "B", 'Matthew''s Trait dataset'!L29="FCT", "C", 'Matthew''s Trait dataset'!L29="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L29" s="4" cm="1">
         <f t="array" ref="L29">_xlfn.IFS('Matthew''s Trait dataset'!N29="High", 1, 'Matthew''s Trait dataset'!N29="Low", 0)</f>
@@ -17997,9 +17997,9 @@
         <f t="array" ref="J30">_xlfn.IFS('Matthew''s Trait dataset'!K30="High", 1, 'Matthew''s Trait dataset'!K30="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="4" t="e" cm="1">
-        <f t="array" ref="K30">_xlfn.IFS('Matthew''s Trait dataset'!L30="Long Baleen", "A", 'Matthew''s Trait dataset'!L30="Short Baleen", "B", 'Matthew''s Trait dataset'!L30="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L30="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K30" s="4" t="str" cm="1">
+        <f t="array" ref="K30">_xlfn.IFS('Matthew''s Trait dataset'!L30="LB", "A", 'Matthew''s Trait dataset'!L30="SB", "B", 'Matthew''s Trait dataset'!L30="FCT", "C", 'Matthew''s Trait dataset'!L30="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L30" s="4" cm="1">
         <f t="array" ref="L30">_xlfn.IFS('Matthew''s Trait dataset'!N30="High", 1, 'Matthew''s Trait dataset'!N30="Low", 0)</f>
@@ -18073,9 +18073,9 @@
         <f t="array" ref="J31">_xlfn.IFS('Matthew''s Trait dataset'!K31="High", 1, 'Matthew''s Trait dataset'!K31="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K31" s="4" t="e" cm="1">
-        <f t="array" ref="K31">_xlfn.IFS('Matthew''s Trait dataset'!L31="Long Baleen", "A", 'Matthew''s Trait dataset'!L31="Short Baleen", "B", 'Matthew''s Trait dataset'!L31="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L31="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K31" s="4" t="str" cm="1">
+        <f t="array" ref="K31">_xlfn.IFS('Matthew''s Trait dataset'!L31="LB", "A", 'Matthew''s Trait dataset'!L31="SB", "B", 'Matthew''s Trait dataset'!L31="FCT", "C", 'Matthew''s Trait dataset'!L31="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L31" s="4" cm="1">
         <f t="array" ref="L31">_xlfn.IFS('Matthew''s Trait dataset'!N31="High", 1, 'Matthew''s Trait dataset'!N31="Low", 0)</f>
@@ -18149,9 +18149,9 @@
         <f t="array" ref="J32">_xlfn.IFS('Matthew''s Trait dataset'!K32="High", 1, 'Matthew''s Trait dataset'!K32="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K32" s="4" t="e" cm="1">
-        <f t="array" ref="K32">_xlfn.IFS('Matthew''s Trait dataset'!L32="Long Baleen", "A", 'Matthew''s Trait dataset'!L32="Short Baleen", "B", 'Matthew''s Trait dataset'!L32="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L32="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K32" s="4" t="str" cm="1">
+        <f t="array" ref="K32">_xlfn.IFS('Matthew''s Trait dataset'!L32="LB", "A", 'Matthew''s Trait dataset'!L32="SB", "B", 'Matthew''s Trait dataset'!L32="FCT", "C", 'Matthew''s Trait dataset'!L32="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L32" s="4" cm="1">
         <f t="array" ref="L32">_xlfn.IFS('Matthew''s Trait dataset'!N32="High", 1, 'Matthew''s Trait dataset'!N32="Low", 0)</f>
@@ -18225,9 +18225,9 @@
         <f t="array" ref="J33">_xlfn.IFS('Matthew''s Trait dataset'!K33="High", 1, 'Matthew''s Trait dataset'!K33="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K33" s="4" t="e" cm="1">
-        <f t="array" ref="K33">_xlfn.IFS('Matthew''s Trait dataset'!L33="Long Baleen", "A", 'Matthew''s Trait dataset'!L33="Short Baleen", "B", 'Matthew''s Trait dataset'!L33="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L33="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K33" s="4" t="str" cm="1">
+        <f t="array" ref="K33">_xlfn.IFS('Matthew''s Trait dataset'!L33="LB", "A", 'Matthew''s Trait dataset'!L33="SB", "B", 'Matthew''s Trait dataset'!L33="FCT", "C", 'Matthew''s Trait dataset'!L33="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L33" s="4" cm="1">
         <f t="array" ref="L33">_xlfn.IFS('Matthew''s Trait dataset'!N33="High", 1, 'Matthew''s Trait dataset'!N33="Low", 0)</f>
@@ -18301,9 +18301,9 @@
         <f t="array" ref="J34">_xlfn.IFS('Matthew''s Trait dataset'!K34="High", 1, 'Matthew''s Trait dataset'!K34="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K34" s="4" t="e" cm="1">
-        <f t="array" ref="K34">_xlfn.IFS('Matthew''s Trait dataset'!L34="Long Baleen", "A", 'Matthew''s Trait dataset'!L34="Short Baleen", "B", 'Matthew''s Trait dataset'!L34="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L34="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K34" s="4" t="str" cm="1">
+        <f t="array" ref="K34">_xlfn.IFS('Matthew''s Trait dataset'!L34="LB", "A", 'Matthew''s Trait dataset'!L34="SB", "B", 'Matthew''s Trait dataset'!L34="FCT", "C", 'Matthew''s Trait dataset'!L34="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L34" s="4" cm="1">
         <f t="array" ref="L34">_xlfn.IFS('Matthew''s Trait dataset'!N34="High", 1, 'Matthew''s Trait dataset'!N34="Low", 0)</f>
@@ -18377,9 +18377,9 @@
         <f t="array" ref="J35">_xlfn.IFS('Matthew''s Trait dataset'!K35="High", 1, 'Matthew''s Trait dataset'!K35="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K35" s="4" t="e" cm="1">
-        <f t="array" ref="K35">_xlfn.IFS('Matthew''s Trait dataset'!L35="Long Baleen", "A", 'Matthew''s Trait dataset'!L35="Short Baleen", "B", 'Matthew''s Trait dataset'!L35="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L35="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K35" s="4" t="str" cm="1">
+        <f t="array" ref="K35">_xlfn.IFS('Matthew''s Trait dataset'!L35="LB", "A", 'Matthew''s Trait dataset'!L35="SB", "B", 'Matthew''s Trait dataset'!L35="FCT", "C", 'Matthew''s Trait dataset'!L35="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L35" s="4" cm="1">
         <f t="array" ref="L35">_xlfn.IFS('Matthew''s Trait dataset'!N35="High", 1, 'Matthew''s Trait dataset'!N35="Low", 0)</f>
@@ -18453,9 +18453,9 @@
         <f t="array" ref="J36">_xlfn.IFS('Matthew''s Trait dataset'!K36="High", 1, 'Matthew''s Trait dataset'!K36="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K36" s="4" t="e" cm="1">
-        <f t="array" ref="K36">_xlfn.IFS('Matthew''s Trait dataset'!L36="Long Baleen", "A", 'Matthew''s Trait dataset'!L36="Short Baleen", "B", 'Matthew''s Trait dataset'!L36="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L36="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K36" s="4" t="str" cm="1">
+        <f t="array" ref="K36">_xlfn.IFS('Matthew''s Trait dataset'!L36="LB", "A", 'Matthew''s Trait dataset'!L36="SB", "B", 'Matthew''s Trait dataset'!L36="FCT", "C", 'Matthew''s Trait dataset'!L36="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L36" s="4" cm="1">
         <f t="array" ref="L36">_xlfn.IFS('Matthew''s Trait dataset'!N36="High", 1, 'Matthew''s Trait dataset'!N36="Low", 0)</f>
@@ -18529,9 +18529,9 @@
         <f t="array" ref="J37">_xlfn.IFS('Matthew''s Trait dataset'!K37="High", 1, 'Matthew''s Trait dataset'!K37="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K37" s="4" t="e" cm="1">
-        <f t="array" ref="K37">_xlfn.IFS('Matthew''s Trait dataset'!L37="Long Baleen", "A", 'Matthew''s Trait dataset'!L37="Short Baleen", "B", 'Matthew''s Trait dataset'!L37="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L37="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K37" s="4" t="str" cm="1">
+        <f t="array" ref="K37">_xlfn.IFS('Matthew''s Trait dataset'!L37="LB", "A", 'Matthew''s Trait dataset'!L37="SB", "B", 'Matthew''s Trait dataset'!L37="FCT", "C", 'Matthew''s Trait dataset'!L37="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L37" s="4" cm="1">
         <f t="array" ref="L37">_xlfn.IFS('Matthew''s Trait dataset'!N37="High", 1, 'Matthew''s Trait dataset'!N37="Low", 0)</f>
@@ -18605,9 +18605,9 @@
         <f t="array" ref="J38">_xlfn.IFS('Matthew''s Trait dataset'!K38="High", 1, 'Matthew''s Trait dataset'!K38="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K38" s="4" t="e" cm="1">
-        <f t="array" ref="K38">_xlfn.IFS('Matthew''s Trait dataset'!L38="Long Baleen", "A", 'Matthew''s Trait dataset'!L38="Short Baleen", "B", 'Matthew''s Trait dataset'!L38="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L38="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K38" s="4" t="str" cm="1">
+        <f t="array" ref="K38">_xlfn.IFS('Matthew''s Trait dataset'!L38="LB", "A", 'Matthew''s Trait dataset'!L38="SB", "B", 'Matthew''s Trait dataset'!L38="FCT", "C", 'Matthew''s Trait dataset'!L38="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L38" s="4" cm="1">
         <f t="array" ref="L38">_xlfn.IFS('Matthew''s Trait dataset'!N38="High", 1, 'Matthew''s Trait dataset'!N38="Low", 0)</f>
@@ -18681,9 +18681,9 @@
         <f t="array" ref="J39">_xlfn.IFS('Matthew''s Trait dataset'!K39="High", 1, 'Matthew''s Trait dataset'!K39="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K39" s="4" t="e" cm="1">
-        <f t="array" ref="K39">_xlfn.IFS('Matthew''s Trait dataset'!L39="Long Baleen", "A", 'Matthew''s Trait dataset'!L39="Short Baleen", "B", 'Matthew''s Trait dataset'!L39="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L39="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K39" s="4" t="str" cm="1">
+        <f t="array" ref="K39">_xlfn.IFS('Matthew''s Trait dataset'!L39="LB", "A", 'Matthew''s Trait dataset'!L39="SB", "B", 'Matthew''s Trait dataset'!L39="FCT", "C", 'Matthew''s Trait dataset'!L39="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L39" s="4" cm="1">
         <f t="array" ref="L39">_xlfn.IFS('Matthew''s Trait dataset'!N39="High", 1, 'Matthew''s Trait dataset'!N39="Low", 0)</f>
@@ -18757,9 +18757,9 @@
         <f t="array" ref="J40">_xlfn.IFS('Matthew''s Trait dataset'!K40="High", 1, 'Matthew''s Trait dataset'!K40="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K40" s="4" t="e" cm="1">
-        <f t="array" ref="K40">_xlfn.IFS('Matthew''s Trait dataset'!L40="Long Baleen", "A", 'Matthew''s Trait dataset'!L40="Short Baleen", "B", 'Matthew''s Trait dataset'!L40="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L40="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K40" s="4" t="str" cm="1">
+        <f t="array" ref="K40">_xlfn.IFS('Matthew''s Trait dataset'!L40="LB", "A", 'Matthew''s Trait dataset'!L40="SB", "B", 'Matthew''s Trait dataset'!L40="FCT", "C", 'Matthew''s Trait dataset'!L40="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L40" s="4" cm="1">
         <f t="array" ref="L40">_xlfn.IFS('Matthew''s Trait dataset'!N40="High", 1, 'Matthew''s Trait dataset'!N40="Low", 0)</f>
@@ -18833,9 +18833,9 @@
         <f t="array" ref="J41">_xlfn.IFS('Matthew''s Trait dataset'!K41="High", 1, 'Matthew''s Trait dataset'!K41="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K41" s="4" t="e" cm="1">
-        <f t="array" ref="K41">_xlfn.IFS('Matthew''s Trait dataset'!L41="Long Baleen", "A", 'Matthew''s Trait dataset'!L41="Short Baleen", "B", 'Matthew''s Trait dataset'!L41="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L41="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K41" s="4" t="str" cm="1">
+        <f t="array" ref="K41">_xlfn.IFS('Matthew''s Trait dataset'!L41="LB", "A", 'Matthew''s Trait dataset'!L41="SB", "B", 'Matthew''s Trait dataset'!L41="FCT", "C", 'Matthew''s Trait dataset'!L41="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L41" s="4" cm="1">
         <f t="array" ref="L41">_xlfn.IFS('Matthew''s Trait dataset'!N41="High", 1, 'Matthew''s Trait dataset'!N41="Low", 0)</f>
@@ -18909,9 +18909,9 @@
         <f t="array" ref="J42">_xlfn.IFS('Matthew''s Trait dataset'!K42="High", 1, 'Matthew''s Trait dataset'!K42="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K42" s="4" t="e" cm="1">
-        <f t="array" ref="K42">_xlfn.IFS('Matthew''s Trait dataset'!L42="Long Baleen", "A", 'Matthew''s Trait dataset'!L42="Short Baleen", "B", 'Matthew''s Trait dataset'!L42="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L42="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K42" s="4" t="str" cm="1">
+        <f t="array" ref="K42">_xlfn.IFS('Matthew''s Trait dataset'!L42="LB", "A", 'Matthew''s Trait dataset'!L42="SB", "B", 'Matthew''s Trait dataset'!L42="FCT", "C", 'Matthew''s Trait dataset'!L42="NFCT", "D")</f>
+        <v>B</v>
       </c>
       <c r="L42" s="4" cm="1">
         <f t="array" ref="L42">_xlfn.IFS('Matthew''s Trait dataset'!N42="High", 1, 'Matthew''s Trait dataset'!N42="Low", 0)</f>
@@ -18985,9 +18985,9 @@
         <f t="array" ref="J43">_xlfn.IFS('Matthew''s Trait dataset'!K43="High", 1, 'Matthew''s Trait dataset'!K43="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K43" s="4" t="e" cm="1">
-        <f t="array" ref="K43">_xlfn.IFS('Matthew''s Trait dataset'!L43="Long Baleen", "A", 'Matthew''s Trait dataset'!L43="Short Baleen", "B", 'Matthew''s Trait dataset'!L43="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L43="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K43" s="4" t="str" cm="1">
+        <f t="array" ref="K43">_xlfn.IFS('Matthew''s Trait dataset'!L43="LB", "A", 'Matthew''s Trait dataset'!L43="SB", "B", 'Matthew''s Trait dataset'!L43="FCT", "C", 'Matthew''s Trait dataset'!L43="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L43" s="4" cm="1">
         <f t="array" ref="L43">_xlfn.IFS('Matthew''s Trait dataset'!N43="High", 1, 'Matthew''s Trait dataset'!N43="Low", 0)</f>
@@ -19061,9 +19061,9 @@
         <f t="array" ref="J44">_xlfn.IFS('Matthew''s Trait dataset'!K44="High", 1, 'Matthew''s Trait dataset'!K44="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K44" s="4" t="e" cm="1">
-        <f t="array" ref="K44">_xlfn.IFS('Matthew''s Trait dataset'!L44="Long Baleen", "A", 'Matthew''s Trait dataset'!L44="Short Baleen", "B", 'Matthew''s Trait dataset'!L44="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L44="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K44" s="4" t="str" cm="1">
+        <f t="array" ref="K44">_xlfn.IFS('Matthew''s Trait dataset'!L44="LB", "A", 'Matthew''s Trait dataset'!L44="SB", "B", 'Matthew''s Trait dataset'!L44="FCT", "C", 'Matthew''s Trait dataset'!L44="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L44" s="4" cm="1">
         <f t="array" ref="L44">_xlfn.IFS('Matthew''s Trait dataset'!N44="High", 1, 'Matthew''s Trait dataset'!N44="Low", 0)</f>
@@ -19137,9 +19137,9 @@
         <f t="array" ref="J45">_xlfn.IFS('Matthew''s Trait dataset'!K45="High", 1, 'Matthew''s Trait dataset'!K45="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K45" s="4" t="e" cm="1">
-        <f t="array" ref="K45">_xlfn.IFS('Matthew''s Trait dataset'!L45="Long Baleen", "A", 'Matthew''s Trait dataset'!L45="Short Baleen", "B", 'Matthew''s Trait dataset'!L45="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L45="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K45" s="4" t="str" cm="1">
+        <f t="array" ref="K45">_xlfn.IFS('Matthew''s Trait dataset'!L45="LB", "A", 'Matthew''s Trait dataset'!L45="SB", "B", 'Matthew''s Trait dataset'!L45="FCT", "C", 'Matthew''s Trait dataset'!L45="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L45" s="4" cm="1">
         <f t="array" ref="L45">_xlfn.IFS('Matthew''s Trait dataset'!N45="High", 1, 'Matthew''s Trait dataset'!N45="Low", 0)</f>
@@ -19213,9 +19213,9 @@
         <f t="array" ref="J46">_xlfn.IFS('Matthew''s Trait dataset'!K46="High", 1, 'Matthew''s Trait dataset'!K46="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K46" s="4" t="e" cm="1">
-        <f t="array" ref="K46">_xlfn.IFS('Matthew''s Trait dataset'!L46="Long Baleen", "A", 'Matthew''s Trait dataset'!L46="Short Baleen", "B", 'Matthew''s Trait dataset'!L46="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L46="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K46" s="4" t="str" cm="1">
+        <f t="array" ref="K46">_xlfn.IFS('Matthew''s Trait dataset'!L46="LB", "A", 'Matthew''s Trait dataset'!L46="SB", "B", 'Matthew''s Trait dataset'!L46="FCT", "C", 'Matthew''s Trait dataset'!L46="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L46" s="4" cm="1">
         <f t="array" ref="L46">_xlfn.IFS('Matthew''s Trait dataset'!N46="High", 1, 'Matthew''s Trait dataset'!N46="Low", 0)</f>
@@ -19289,9 +19289,9 @@
         <f t="array" ref="J47">_xlfn.IFS('Matthew''s Trait dataset'!K47="High", 1, 'Matthew''s Trait dataset'!K47="Low", 0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="4" t="e" cm="1">
-        <f t="array" ref="K47">_xlfn.IFS('Matthew''s Trait dataset'!L47="Long Baleen", "A", 'Matthew''s Trait dataset'!L47="Short Baleen", "B", 'Matthew''s Trait dataset'!L47="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L47="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K47" s="4" t="str" cm="1">
+        <f t="array" ref="K47">_xlfn.IFS('Matthew''s Trait dataset'!L47="LB", "A", 'Matthew''s Trait dataset'!L47="SB", "B", 'Matthew''s Trait dataset'!L47="FCT", "C", 'Matthew''s Trait dataset'!L47="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L47" s="4" cm="1">
         <f t="array" ref="L47">_xlfn.IFS('Matthew''s Trait dataset'!N47="High", 1, 'Matthew''s Trait dataset'!N47="Low", 0)</f>
@@ -19365,9 +19365,9 @@
         <f t="array" ref="J48">_xlfn.IFS('Matthew''s Trait dataset'!K48="High", 1, 'Matthew''s Trait dataset'!K48="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K48" s="4" t="e" cm="1">
-        <f t="array" ref="K48">_xlfn.IFS('Matthew''s Trait dataset'!L48="Long Baleen", "A", 'Matthew''s Trait dataset'!L48="Short Baleen", "B", 'Matthew''s Trait dataset'!L48="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L48="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K48" s="4" t="str" cm="1">
+        <f t="array" ref="K48">_xlfn.IFS('Matthew''s Trait dataset'!L48="LB", "A", 'Matthew''s Trait dataset'!L48="SB", "B", 'Matthew''s Trait dataset'!L48="FCT", "C", 'Matthew''s Trait dataset'!L48="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L48" s="4" cm="1">
         <f t="array" ref="L48">_xlfn.IFS('Matthew''s Trait dataset'!N48="High", 1, 'Matthew''s Trait dataset'!N48="Low", 0)</f>
@@ -19441,9 +19441,9 @@
         <f t="array" ref="J49">_xlfn.IFS('Matthew''s Trait dataset'!K49="High", 1, 'Matthew''s Trait dataset'!K49="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K49" s="4" t="e" cm="1">
-        <f t="array" ref="K49">_xlfn.IFS('Matthew''s Trait dataset'!L49="Long Baleen", "A", 'Matthew''s Trait dataset'!L49="Short Baleen", "B", 'Matthew''s Trait dataset'!L49="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L49="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K49" s="4" t="str" cm="1">
+        <f t="array" ref="K49">_xlfn.IFS('Matthew''s Trait dataset'!L49="LB", "A", 'Matthew''s Trait dataset'!L49="SB", "B", 'Matthew''s Trait dataset'!L49="FCT", "C", 'Matthew''s Trait dataset'!L49="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L49" s="4" cm="1">
         <f t="array" ref="L49">_xlfn.IFS('Matthew''s Trait dataset'!N49="High", 1, 'Matthew''s Trait dataset'!N49="Low", 0)</f>
@@ -19517,9 +19517,9 @@
         <f t="array" ref="J50">_xlfn.IFS('Matthew''s Trait dataset'!K50="High", 1, 'Matthew''s Trait dataset'!K50="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K50" s="4" t="e" cm="1">
-        <f t="array" ref="K50">_xlfn.IFS('Matthew''s Trait dataset'!L50="Long Baleen", "A", 'Matthew''s Trait dataset'!L50="Short Baleen", "B", 'Matthew''s Trait dataset'!L50="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L50="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K50" s="4" t="str" cm="1">
+        <f t="array" ref="K50">_xlfn.IFS('Matthew''s Trait dataset'!L50="LB", "A", 'Matthew''s Trait dataset'!L50="SB", "B", 'Matthew''s Trait dataset'!L50="FCT", "C", 'Matthew''s Trait dataset'!L50="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L50" s="4" cm="1">
         <f t="array" ref="L50">_xlfn.IFS('Matthew''s Trait dataset'!N50="High", 1, 'Matthew''s Trait dataset'!N50="Low", 0)</f>
@@ -19593,9 +19593,9 @@
         <f t="array" ref="J51">_xlfn.IFS('Matthew''s Trait dataset'!K51="High", 1, 'Matthew''s Trait dataset'!K51="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K51" s="4" t="e" cm="1">
-        <f t="array" ref="K51">_xlfn.IFS('Matthew''s Trait dataset'!L51="Long Baleen", "A", 'Matthew''s Trait dataset'!L51="Short Baleen", "B", 'Matthew''s Trait dataset'!L51="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L51="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K51" s="4" t="str" cm="1">
+        <f t="array" ref="K51">_xlfn.IFS('Matthew''s Trait dataset'!L51="LB", "A", 'Matthew''s Trait dataset'!L51="SB", "B", 'Matthew''s Trait dataset'!L51="FCT", "C", 'Matthew''s Trait dataset'!L51="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L51" s="4" cm="1">
         <f t="array" ref="L51">_xlfn.IFS('Matthew''s Trait dataset'!N51="High", 1, 'Matthew''s Trait dataset'!N51="Low", 0)</f>
@@ -19669,9 +19669,9 @@
         <f t="array" ref="J52">_xlfn.IFS('Matthew''s Trait dataset'!K52="High", 1, 'Matthew''s Trait dataset'!K52="Low", 0)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="4" t="e" cm="1">
-        <f t="array" ref="K52">_xlfn.IFS('Matthew''s Trait dataset'!L52="Long Baleen", "A", 'Matthew''s Trait dataset'!L52="Short Baleen", "B", 'Matthew''s Trait dataset'!L52="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L52="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K52" s="4" t="str" cm="1">
+        <f t="array" ref="K52">_xlfn.IFS('Matthew''s Trait dataset'!L52="LB", "A", 'Matthew''s Trait dataset'!L52="SB", "B", 'Matthew''s Trait dataset'!L52="FCT", "C", 'Matthew''s Trait dataset'!L52="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L52" s="4" cm="1">
         <f t="array" ref="L52">_xlfn.IFS('Matthew''s Trait dataset'!N52="High", 1, 'Matthew''s Trait dataset'!N52="Low", 0)</f>
@@ -19745,9 +19745,9 @@
         <f t="array" ref="J53">_xlfn.IFS('Matthew''s Trait dataset'!K53="High", 1, 'Matthew''s Trait dataset'!K53="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K53" s="4" t="e" cm="1">
-        <f t="array" ref="K53">_xlfn.IFS('Matthew''s Trait dataset'!L53="Long Baleen", "A", 'Matthew''s Trait dataset'!L53="Short Baleen", "B", 'Matthew''s Trait dataset'!L53="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L53="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K53" s="4" t="str" cm="1">
+        <f t="array" ref="K53">_xlfn.IFS('Matthew''s Trait dataset'!L53="LB", "A", 'Matthew''s Trait dataset'!L53="SB", "B", 'Matthew''s Trait dataset'!L53="FCT", "C", 'Matthew''s Trait dataset'!L53="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L53" s="4" cm="1">
         <f t="array" ref="L53">_xlfn.IFS('Matthew''s Trait dataset'!N53="High", 1, 'Matthew''s Trait dataset'!N53="Low", 0)</f>
@@ -19821,9 +19821,9 @@
         <f t="array" ref="J54">_xlfn.IFS('Matthew''s Trait dataset'!K54="High", 1, 'Matthew''s Trait dataset'!K54="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K54" s="4" t="e" cm="1">
-        <f t="array" ref="K54">_xlfn.IFS('Matthew''s Trait dataset'!L54="Long Baleen", "A", 'Matthew''s Trait dataset'!L54="Short Baleen", "B", 'Matthew''s Trait dataset'!L54="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L54="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K54" s="4" t="str" cm="1">
+        <f t="array" ref="K54">_xlfn.IFS('Matthew''s Trait dataset'!L54="LB", "A", 'Matthew''s Trait dataset'!L54="SB", "B", 'Matthew''s Trait dataset'!L54="FCT", "C", 'Matthew''s Trait dataset'!L54="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L54" s="4" cm="1">
         <f t="array" ref="L54">_xlfn.IFS('Matthew''s Trait dataset'!N54="High", 1, 'Matthew''s Trait dataset'!N54="Low", 0)</f>
@@ -19897,9 +19897,9 @@
         <f t="array" ref="J55">_xlfn.IFS('Matthew''s Trait dataset'!K55="High", 1, 'Matthew''s Trait dataset'!K55="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K55" s="4" t="e" cm="1">
-        <f t="array" ref="K55">_xlfn.IFS('Matthew''s Trait dataset'!L55="Long Baleen", "A", 'Matthew''s Trait dataset'!L55="Short Baleen", "B", 'Matthew''s Trait dataset'!L55="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L55="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K55" s="4" t="str" cm="1">
+        <f t="array" ref="K55">_xlfn.IFS('Matthew''s Trait dataset'!L55="LB", "A", 'Matthew''s Trait dataset'!L55="SB", "B", 'Matthew''s Trait dataset'!L55="FCT", "C", 'Matthew''s Trait dataset'!L55="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L55" s="4" cm="1">
         <f t="array" ref="L55">_xlfn.IFS('Matthew''s Trait dataset'!N55="High", 1, 'Matthew''s Trait dataset'!N55="Low", 0)</f>
@@ -19973,9 +19973,9 @@
         <f t="array" ref="J56">_xlfn.IFS('Matthew''s Trait dataset'!K56="High", 1, 'Matthew''s Trait dataset'!K56="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K56" s="4" t="e" cm="1">
-        <f t="array" ref="K56">_xlfn.IFS('Matthew''s Trait dataset'!L56="Long Baleen", "A", 'Matthew''s Trait dataset'!L56="Short Baleen", "B", 'Matthew''s Trait dataset'!L56="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L56="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K56" s="4" t="str" cm="1">
+        <f t="array" ref="K56">_xlfn.IFS('Matthew''s Trait dataset'!L56="LB", "A", 'Matthew''s Trait dataset'!L56="SB", "B", 'Matthew''s Trait dataset'!L56="FCT", "C", 'Matthew''s Trait dataset'!L56="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L56" s="4" cm="1">
         <f t="array" ref="L56">_xlfn.IFS('Matthew''s Trait dataset'!N56="High", 1, 'Matthew''s Trait dataset'!N56="Low", 0)</f>
@@ -20049,9 +20049,9 @@
         <f t="array" ref="J57">_xlfn.IFS('Matthew''s Trait dataset'!K57="High", 1, 'Matthew''s Trait dataset'!K57="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K57" s="4" t="e" cm="1">
-        <f t="array" ref="K57">_xlfn.IFS('Matthew''s Trait dataset'!L57="Long Baleen", "A", 'Matthew''s Trait dataset'!L57="Short Baleen", "B", 'Matthew''s Trait dataset'!L57="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L57="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K57" s="4" t="str" cm="1">
+        <f t="array" ref="K57">_xlfn.IFS('Matthew''s Trait dataset'!L57="LB", "A", 'Matthew''s Trait dataset'!L57="SB", "B", 'Matthew''s Trait dataset'!L57="FCT", "C", 'Matthew''s Trait dataset'!L57="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L57" s="4" cm="1">
         <f t="array" ref="L57">_xlfn.IFS('Matthew''s Trait dataset'!N57="High", 1, 'Matthew''s Trait dataset'!N57="Low", 0)</f>
@@ -20125,9 +20125,9 @@
         <f t="array" ref="J58">_xlfn.IFS('Matthew''s Trait dataset'!K58="High", 1, 'Matthew''s Trait dataset'!K58="Low", 0)</f>
         <v>0</v>
       </c>
-      <c r="K58" s="4" t="e" cm="1">
-        <f t="array" ref="K58">_xlfn.IFS('Matthew''s Trait dataset'!L58="Long Baleen", "A", 'Matthew''s Trait dataset'!L58="Short Baleen", "B", 'Matthew''s Trait dataset'!L58="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L58="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K58" s="4" t="str" cm="1">
+        <f t="array" ref="K58">_xlfn.IFS('Matthew''s Trait dataset'!L58="LB", "A", 'Matthew''s Trait dataset'!L58="SB", "B", 'Matthew''s Trait dataset'!L58="FCT", "C", 'Matthew''s Trait dataset'!L58="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L58" s="4" cm="1">
         <f t="array" ref="L58">_xlfn.IFS('Matthew''s Trait dataset'!N58="High", 1, 'Matthew''s Trait dataset'!N58="Low", 0)</f>
@@ -20201,9 +20201,9 @@
         <f t="array" ref="J59">_xlfn.IFS('Matthew''s Trait dataset'!K59="High", 1, 'Matthew''s Trait dataset'!K59="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K59" s="4" t="e" cm="1">
-        <f t="array" ref="K59">_xlfn.IFS('Matthew''s Trait dataset'!L59="Long Baleen", "A", 'Matthew''s Trait dataset'!L59="Short Baleen", "B", 'Matthew''s Trait dataset'!L59="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L59="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K59" s="4" t="str" cm="1">
+        <f t="array" ref="K59">_xlfn.IFS('Matthew''s Trait dataset'!L59="LB", "A", 'Matthew''s Trait dataset'!L59="SB", "B", 'Matthew''s Trait dataset'!L59="FCT", "C", 'Matthew''s Trait dataset'!L59="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L59" s="4" cm="1">
         <f t="array" ref="L59">_xlfn.IFS('Matthew''s Trait dataset'!N59="High", 1, 'Matthew''s Trait dataset'!N59="Low", 0)</f>
@@ -20277,9 +20277,9 @@
         <f t="array" ref="J60">_xlfn.IFS('Matthew''s Trait dataset'!K60="High", 1, 'Matthew''s Trait dataset'!K60="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K60" s="4" t="e" cm="1">
-        <f t="array" ref="K60">_xlfn.IFS('Matthew''s Trait dataset'!L60="Long Baleen", "A", 'Matthew''s Trait dataset'!L60="Short Baleen", "B", 'Matthew''s Trait dataset'!L60="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L60="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K60" s="4" t="str" cm="1">
+        <f t="array" ref="K60">_xlfn.IFS('Matthew''s Trait dataset'!L60="LB", "A", 'Matthew''s Trait dataset'!L60="SB", "B", 'Matthew''s Trait dataset'!L60="FCT", "C", 'Matthew''s Trait dataset'!L60="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L60" s="4" cm="1">
         <f t="array" ref="L60">_xlfn.IFS('Matthew''s Trait dataset'!N60="High", 1, 'Matthew''s Trait dataset'!N60="Low", 0)</f>
@@ -20353,9 +20353,9 @@
         <f t="array" ref="J61">_xlfn.IFS('Matthew''s Trait dataset'!K61="High", 1, 'Matthew''s Trait dataset'!K61="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K61" s="4" t="e" cm="1">
-        <f t="array" ref="K61">_xlfn.IFS('Matthew''s Trait dataset'!L61="Long Baleen", "A", 'Matthew''s Trait dataset'!L61="Short Baleen", "B", 'Matthew''s Trait dataset'!L61="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L61="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K61" s="4" t="str" cm="1">
+        <f t="array" ref="K61">_xlfn.IFS('Matthew''s Trait dataset'!L61="LB", "A", 'Matthew''s Trait dataset'!L61="SB", "B", 'Matthew''s Trait dataset'!L61="FCT", "C", 'Matthew''s Trait dataset'!L61="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L61" s="4" cm="1">
         <f t="array" ref="L61">_xlfn.IFS('Matthew''s Trait dataset'!N61="High", 1, 'Matthew''s Trait dataset'!N61="Low", 0)</f>
@@ -20429,9 +20429,9 @@
         <f t="array" ref="J62">_xlfn.IFS('Matthew''s Trait dataset'!K62="High", 1, 'Matthew''s Trait dataset'!K62="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K62" s="4" t="e" cm="1">
-        <f t="array" ref="K62">_xlfn.IFS('Matthew''s Trait dataset'!L62="Long Baleen", "A", 'Matthew''s Trait dataset'!L62="Short Baleen", "B", 'Matthew''s Trait dataset'!L62="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L62="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K62" s="4" t="str" cm="1">
+        <f t="array" ref="K62">_xlfn.IFS('Matthew''s Trait dataset'!L62="LB", "A", 'Matthew''s Trait dataset'!L62="SB", "B", 'Matthew''s Trait dataset'!L62="FCT", "C", 'Matthew''s Trait dataset'!L62="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L62" s="4" cm="1">
         <f t="array" ref="L62">_xlfn.IFS('Matthew''s Trait dataset'!N62="High", 1, 'Matthew''s Trait dataset'!N62="Low", 0)</f>
@@ -20505,9 +20505,9 @@
         <f t="array" ref="J63">_xlfn.IFS('Matthew''s Trait dataset'!K63="High", 1, 'Matthew''s Trait dataset'!K63="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K63" s="4" t="e" cm="1">
-        <f t="array" ref="K63">_xlfn.IFS('Matthew''s Trait dataset'!L63="Long Baleen", "A", 'Matthew''s Trait dataset'!L63="Short Baleen", "B", 'Matthew''s Trait dataset'!L63="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L63="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K63" s="4" t="str" cm="1">
+        <f t="array" ref="K63">_xlfn.IFS('Matthew''s Trait dataset'!L63="LB", "A", 'Matthew''s Trait dataset'!L63="SB", "B", 'Matthew''s Trait dataset'!L63="FCT", "C", 'Matthew''s Trait dataset'!L63="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L63" s="4" cm="1">
         <f t="array" ref="L63">_xlfn.IFS('Matthew''s Trait dataset'!N63="High", 1, 'Matthew''s Trait dataset'!N63="Low", 0)</f>
@@ -20581,9 +20581,9 @@
         <f t="array" ref="J64">_xlfn.IFS('Matthew''s Trait dataset'!K64="High", 1, 'Matthew''s Trait dataset'!K64="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K64" s="4" t="e" cm="1">
-        <f t="array" ref="K64">_xlfn.IFS('Matthew''s Trait dataset'!L64="Long Baleen", "A", 'Matthew''s Trait dataset'!L64="Short Baleen", "B", 'Matthew''s Trait dataset'!L64="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L64="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K64" s="4" t="str" cm="1">
+        <f t="array" ref="K64">_xlfn.IFS('Matthew''s Trait dataset'!L64="LB", "A", 'Matthew''s Trait dataset'!L64="SB", "B", 'Matthew''s Trait dataset'!L64="FCT", "C", 'Matthew''s Trait dataset'!L64="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L64" s="4" cm="1">
         <f t="array" ref="L64">_xlfn.IFS('Matthew''s Trait dataset'!N64="High", 1, 'Matthew''s Trait dataset'!N64="Low", 0)</f>
@@ -20657,9 +20657,9 @@
         <f t="array" ref="J65">_xlfn.IFS('Matthew''s Trait dataset'!K65="High", 1, 'Matthew''s Trait dataset'!K65="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K65" s="4" t="e" cm="1">
-        <f t="array" ref="K65">_xlfn.IFS('Matthew''s Trait dataset'!L65="Long Baleen", "A", 'Matthew''s Trait dataset'!L65="Short Baleen", "B", 'Matthew''s Trait dataset'!L65="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L65="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K65" s="4" t="str" cm="1">
+        <f t="array" ref="K65">_xlfn.IFS('Matthew''s Trait dataset'!L65="LB", "A", 'Matthew''s Trait dataset'!L65="SB", "B", 'Matthew''s Trait dataset'!L65="FCT", "C", 'Matthew''s Trait dataset'!L65="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L65" s="4" cm="1">
         <f t="array" ref="L65">_xlfn.IFS('Matthew''s Trait dataset'!N65="High", 1, 'Matthew''s Trait dataset'!N65="Low", 0)</f>
@@ -20733,9 +20733,9 @@
         <f t="array" ref="J66">_xlfn.IFS('Matthew''s Trait dataset'!K66="High", 1, 'Matthew''s Trait dataset'!K66="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K66" s="4" t="e" cm="1">
-        <f t="array" ref="K66">_xlfn.IFS('Matthew''s Trait dataset'!L66="Long Baleen", "A", 'Matthew''s Trait dataset'!L66="Short Baleen", "B", 'Matthew''s Trait dataset'!L66="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L66="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K66" s="4" t="str" cm="1">
+        <f t="array" ref="K66">_xlfn.IFS('Matthew''s Trait dataset'!L66="LB", "A", 'Matthew''s Trait dataset'!L66="SB", "B", 'Matthew''s Trait dataset'!L66="FCT", "C", 'Matthew''s Trait dataset'!L66="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L66" s="4" cm="1">
         <f t="array" ref="L66">_xlfn.IFS('Matthew''s Trait dataset'!N66="High", 1, 'Matthew''s Trait dataset'!N66="Low", 0)</f>
@@ -20809,9 +20809,9 @@
         <f t="array" ref="J67">_xlfn.IFS('Matthew''s Trait dataset'!K67="High", 1, 'Matthew''s Trait dataset'!K67="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K67" s="4" t="e" cm="1">
-        <f t="array" ref="K67">_xlfn.IFS('Matthew''s Trait dataset'!L67="Long Baleen", "A", 'Matthew''s Trait dataset'!L67="Short Baleen", "B", 'Matthew''s Trait dataset'!L67="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L67="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K67" s="4" t="str" cm="1">
+        <f t="array" ref="K67">_xlfn.IFS('Matthew''s Trait dataset'!L67="LB", "A", 'Matthew''s Trait dataset'!L67="SB", "B", 'Matthew''s Trait dataset'!L67="FCT", "C", 'Matthew''s Trait dataset'!L67="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L67" s="4" cm="1">
         <f t="array" ref="L67">_xlfn.IFS('Matthew''s Trait dataset'!N67="High", 1, 'Matthew''s Trait dataset'!N67="Low", 0)</f>
@@ -20885,9 +20885,9 @@
         <f t="array" ref="J68">_xlfn.IFS('Matthew''s Trait dataset'!K68="High", 1, 'Matthew''s Trait dataset'!K68="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K68" s="4" t="e" cm="1">
-        <f t="array" ref="K68">_xlfn.IFS('Matthew''s Trait dataset'!L68="Long Baleen", "A", 'Matthew''s Trait dataset'!L68="Short Baleen", "B", 'Matthew''s Trait dataset'!L68="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L68="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K68" s="4" t="str" cm="1">
+        <f t="array" ref="K68">_xlfn.IFS('Matthew''s Trait dataset'!L68="LB", "A", 'Matthew''s Trait dataset'!L68="SB", "B", 'Matthew''s Trait dataset'!L68="FCT", "C", 'Matthew''s Trait dataset'!L68="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L68" s="4" cm="1">
         <f t="array" ref="L68">_xlfn.IFS('Matthew''s Trait dataset'!N68="High", 1, 'Matthew''s Trait dataset'!N68="Low", 0)</f>
@@ -20961,9 +20961,9 @@
         <f t="array" ref="J69">_xlfn.IFS('Matthew''s Trait dataset'!K69="High", 1, 'Matthew''s Trait dataset'!K69="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K69" s="4" t="e" cm="1">
-        <f t="array" ref="K69">_xlfn.IFS('Matthew''s Trait dataset'!L69="Long Baleen", "A", 'Matthew''s Trait dataset'!L69="Short Baleen", "B", 'Matthew''s Trait dataset'!L69="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L69="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K69" s="4" t="str" cm="1">
+        <f t="array" ref="K69">_xlfn.IFS('Matthew''s Trait dataset'!L69="LB", "A", 'Matthew''s Trait dataset'!L69="SB", "B", 'Matthew''s Trait dataset'!L69="FCT", "C", 'Matthew''s Trait dataset'!L69="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L69" s="4" cm="1">
         <f t="array" ref="L69">_xlfn.IFS('Matthew''s Trait dataset'!N69="High", 1, 'Matthew''s Trait dataset'!N69="Low", 0)</f>
@@ -21037,9 +21037,9 @@
         <f t="array" ref="J70">_xlfn.IFS('Matthew''s Trait dataset'!K70="High", 1, 'Matthew''s Trait dataset'!K70="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K70" s="4" t="e" cm="1">
-        <f t="array" ref="K70">_xlfn.IFS('Matthew''s Trait dataset'!L70="Long Baleen", "A", 'Matthew''s Trait dataset'!L70="Short Baleen", "B", 'Matthew''s Trait dataset'!L70="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L70="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K70" s="4" t="str" cm="1">
+        <f t="array" ref="K70">_xlfn.IFS('Matthew''s Trait dataset'!L70="LB", "A", 'Matthew''s Trait dataset'!L70="SB", "B", 'Matthew''s Trait dataset'!L70="FCT", "C", 'Matthew''s Trait dataset'!L70="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L70" s="4" cm="1">
         <f t="array" ref="L70">_xlfn.IFS('Matthew''s Trait dataset'!N70="High", 1, 'Matthew''s Trait dataset'!N70="Low", 0)</f>
@@ -21113,9 +21113,9 @@
         <f t="array" ref="J71">_xlfn.IFS('Matthew''s Trait dataset'!K71="High", 1, 'Matthew''s Trait dataset'!K71="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K71" s="4" t="e" cm="1">
-        <f t="array" ref="K71">_xlfn.IFS('Matthew''s Trait dataset'!L71="Long Baleen", "A", 'Matthew''s Trait dataset'!L71="Short Baleen", "B", 'Matthew''s Trait dataset'!L71="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L71="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K71" s="4" t="str" cm="1">
+        <f t="array" ref="K71">_xlfn.IFS('Matthew''s Trait dataset'!L71="LB", "A", 'Matthew''s Trait dataset'!L71="SB", "B", 'Matthew''s Trait dataset'!L71="FCT", "C", 'Matthew''s Trait dataset'!L71="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L71" s="4" cm="1">
         <f t="array" ref="L71">_xlfn.IFS('Matthew''s Trait dataset'!N71="High", 1, 'Matthew''s Trait dataset'!N71="Low", 0)</f>
@@ -21189,9 +21189,9 @@
         <f t="array" ref="J72">_xlfn.IFS('Matthew''s Trait dataset'!K72="High", 1, 'Matthew''s Trait dataset'!K72="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K72" s="4" t="e" cm="1">
-        <f t="array" ref="K72">_xlfn.IFS('Matthew''s Trait dataset'!L72="Long Baleen", "A", 'Matthew''s Trait dataset'!L72="Short Baleen", "B", 'Matthew''s Trait dataset'!L72="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L72="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K72" s="4" t="str" cm="1">
+        <f t="array" ref="K72">_xlfn.IFS('Matthew''s Trait dataset'!L72="LB", "A", 'Matthew''s Trait dataset'!L72="SB", "B", 'Matthew''s Trait dataset'!L72="FCT", "C", 'Matthew''s Trait dataset'!L72="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L72" s="4" cm="1">
         <f t="array" ref="L72">_xlfn.IFS('Matthew''s Trait dataset'!N72="High", 1, 'Matthew''s Trait dataset'!N72="Low", 0)</f>
@@ -21265,9 +21265,9 @@
         <f t="array" ref="J73">_xlfn.IFS('Matthew''s Trait dataset'!K73="High", 1, 'Matthew''s Trait dataset'!K73="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K73" s="4" t="e" cm="1">
-        <f t="array" ref="K73">_xlfn.IFS('Matthew''s Trait dataset'!L73="Long Baleen", "A", 'Matthew''s Trait dataset'!L73="Short Baleen", "B", 'Matthew''s Trait dataset'!L73="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L73="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K73" s="4" t="str" cm="1">
+        <f t="array" ref="K73">_xlfn.IFS('Matthew''s Trait dataset'!L73="LB", "A", 'Matthew''s Trait dataset'!L73="SB", "B", 'Matthew''s Trait dataset'!L73="FCT", "C", 'Matthew''s Trait dataset'!L73="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L73" s="4" cm="1">
         <f t="array" ref="L73">_xlfn.IFS('Matthew''s Trait dataset'!N73="High", 1, 'Matthew''s Trait dataset'!N73="Low", 0)</f>
@@ -21341,9 +21341,9 @@
         <f t="array" ref="J74">_xlfn.IFS('Matthew''s Trait dataset'!K74="High", 1, 'Matthew''s Trait dataset'!K74="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K74" s="4" t="e" cm="1">
-        <f t="array" ref="K74">_xlfn.IFS('Matthew''s Trait dataset'!L74="Long Baleen", "A", 'Matthew''s Trait dataset'!L74="Short Baleen", "B", 'Matthew''s Trait dataset'!L74="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L74="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K74" s="4" t="str" cm="1">
+        <f t="array" ref="K74">_xlfn.IFS('Matthew''s Trait dataset'!L74="LB", "A", 'Matthew''s Trait dataset'!L74="SB", "B", 'Matthew''s Trait dataset'!L74="FCT", "C", 'Matthew''s Trait dataset'!L74="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L74" s="4" cm="1">
         <f t="array" ref="L74">_xlfn.IFS('Matthew''s Trait dataset'!N74="High", 1, 'Matthew''s Trait dataset'!N74="Low", 0)</f>
@@ -21417,9 +21417,9 @@
         <f t="array" ref="J75">_xlfn.IFS('Matthew''s Trait dataset'!K75="High", 1, 'Matthew''s Trait dataset'!K75="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K75" s="4" t="e" cm="1">
-        <f t="array" ref="K75">_xlfn.IFS('Matthew''s Trait dataset'!L75="Long Baleen", "A", 'Matthew''s Trait dataset'!L75="Short Baleen", "B", 'Matthew''s Trait dataset'!L75="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L75="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K75" s="4" t="str" cm="1">
+        <f t="array" ref="K75">_xlfn.IFS('Matthew''s Trait dataset'!L75="LB", "A", 'Matthew''s Trait dataset'!L75="SB", "B", 'Matthew''s Trait dataset'!L75="FCT", "C", 'Matthew''s Trait dataset'!L75="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L75" s="4" cm="1">
         <f t="array" ref="L75">_xlfn.IFS('Matthew''s Trait dataset'!N75="High", 1, 'Matthew''s Trait dataset'!N75="Low", 0)</f>
@@ -21493,9 +21493,9 @@
         <f t="array" ref="J76">_xlfn.IFS('Matthew''s Trait dataset'!K76="High", 1, 'Matthew''s Trait dataset'!K76="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K76" s="4" t="e" cm="1">
-        <f t="array" ref="K76">_xlfn.IFS('Matthew''s Trait dataset'!L76="Long Baleen", "A", 'Matthew''s Trait dataset'!L76="Short Baleen", "B", 'Matthew''s Trait dataset'!L76="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L76="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K76" s="4" t="str" cm="1">
+        <f t="array" ref="K76">_xlfn.IFS('Matthew''s Trait dataset'!L76="LB", "A", 'Matthew''s Trait dataset'!L76="SB", "B", 'Matthew''s Trait dataset'!L76="FCT", "C", 'Matthew''s Trait dataset'!L76="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L76" s="4" cm="1">
         <f t="array" ref="L76">_xlfn.IFS('Matthew''s Trait dataset'!N76="High", 1, 'Matthew''s Trait dataset'!N76="Low", 0)</f>
@@ -21569,9 +21569,9 @@
         <f t="array" ref="J77">_xlfn.IFS('Matthew''s Trait dataset'!K77="High", 1, 'Matthew''s Trait dataset'!K77="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K77" s="4" t="e" cm="1">
-        <f t="array" ref="K77">_xlfn.IFS('Matthew''s Trait dataset'!L77="Long Baleen", "A", 'Matthew''s Trait dataset'!L77="Short Baleen", "B", 'Matthew''s Trait dataset'!L77="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L77="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K77" s="4" t="str" cm="1">
+        <f t="array" ref="K77">_xlfn.IFS('Matthew''s Trait dataset'!L77="LB", "A", 'Matthew''s Trait dataset'!L77="SB", "B", 'Matthew''s Trait dataset'!L77="FCT", "C", 'Matthew''s Trait dataset'!L77="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L77" s="4" cm="1">
         <f t="array" ref="L77">_xlfn.IFS('Matthew''s Trait dataset'!N77="High", 1, 'Matthew''s Trait dataset'!N77="Low", 0)</f>
@@ -21645,9 +21645,9 @@
         <f t="array" ref="J78">_xlfn.IFS('Matthew''s Trait dataset'!K78="High", 1, 'Matthew''s Trait dataset'!K78="Low", 0)</f>
         <v>0</v>
       </c>
-      <c r="K78" s="4" t="e" cm="1">
-        <f t="array" ref="K78">_xlfn.IFS('Matthew''s Trait dataset'!L78="Long Baleen", "A", 'Matthew''s Trait dataset'!L78="Short Baleen", "B", 'Matthew''s Trait dataset'!L78="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L78="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K78" s="4" t="str" cm="1">
+        <f t="array" ref="K78">_xlfn.IFS('Matthew''s Trait dataset'!L78="LB", "A", 'Matthew''s Trait dataset'!L78="SB", "B", 'Matthew''s Trait dataset'!L78="FCT", "C", 'Matthew''s Trait dataset'!L78="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L78" s="4" cm="1">
         <f t="array" ref="L78">_xlfn.IFS('Matthew''s Trait dataset'!N78="High", 1, 'Matthew''s Trait dataset'!N78="Low", 0)</f>
@@ -21721,9 +21721,9 @@
         <f t="array" ref="J79">_xlfn.IFS('Matthew''s Trait dataset'!K79="High", 1, 'Matthew''s Trait dataset'!K79="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K79" s="4" t="e" cm="1">
-        <f t="array" ref="K79">_xlfn.IFS('Matthew''s Trait dataset'!L79="Long Baleen", "A", 'Matthew''s Trait dataset'!L79="Short Baleen", "B", 'Matthew''s Trait dataset'!L79="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L79="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K79" s="4" t="str" cm="1">
+        <f t="array" ref="K79">_xlfn.IFS('Matthew''s Trait dataset'!L79="LB", "A", 'Matthew''s Trait dataset'!L79="SB", "B", 'Matthew''s Trait dataset'!L79="FCT", "C", 'Matthew''s Trait dataset'!L79="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L79" s="4" cm="1">
         <f t="array" ref="L79">_xlfn.IFS('Matthew''s Trait dataset'!N79="High", 1, 'Matthew''s Trait dataset'!N79="Low", 0)</f>
@@ -21797,9 +21797,9 @@
         <f t="array" ref="J80">_xlfn.IFS('Matthew''s Trait dataset'!K80="High", 1, 'Matthew''s Trait dataset'!K80="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K80" s="4" t="e" cm="1">
-        <f t="array" ref="K80">_xlfn.IFS('Matthew''s Trait dataset'!L80="Long Baleen", "A", 'Matthew''s Trait dataset'!L80="Short Baleen", "B", 'Matthew''s Trait dataset'!L80="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L80="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K80" s="4" t="str" cm="1">
+        <f t="array" ref="K80">_xlfn.IFS('Matthew''s Trait dataset'!L80="LB", "A", 'Matthew''s Trait dataset'!L80="SB", "B", 'Matthew''s Trait dataset'!L80="FCT", "C", 'Matthew''s Trait dataset'!L80="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L80" s="4" cm="1">
         <f t="array" ref="L80">_xlfn.IFS('Matthew''s Trait dataset'!N80="High", 1, 'Matthew''s Trait dataset'!N80="Low", 0)</f>
@@ -21873,9 +21873,9 @@
         <f t="array" ref="J81">_xlfn.IFS('Matthew''s Trait dataset'!K81="High", 1, 'Matthew''s Trait dataset'!K81="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K81" s="4" t="e" cm="1">
-        <f t="array" ref="K81">_xlfn.IFS('Matthew''s Trait dataset'!L81="Long Baleen", "A", 'Matthew''s Trait dataset'!L81="Short Baleen", "B", 'Matthew''s Trait dataset'!L81="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L81="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K81" s="4" t="str" cm="1">
+        <f t="array" ref="K81">_xlfn.IFS('Matthew''s Trait dataset'!L81="LB", "A", 'Matthew''s Trait dataset'!L81="SB", "B", 'Matthew''s Trait dataset'!L81="FCT", "C", 'Matthew''s Trait dataset'!L81="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L81" s="4" cm="1">
         <f t="array" ref="L81">_xlfn.IFS('Matthew''s Trait dataset'!N81="High", 1, 'Matthew''s Trait dataset'!N81="Low", 0)</f>
@@ -21949,9 +21949,9 @@
         <f t="array" ref="J82">_xlfn.IFS('Matthew''s Trait dataset'!K82="High", 1, 'Matthew''s Trait dataset'!K82="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K82" s="4" t="e" cm="1">
-        <f t="array" ref="K82">_xlfn.IFS('Matthew''s Trait dataset'!L82="Long Baleen", "A", 'Matthew''s Trait dataset'!L82="Short Baleen", "B", 'Matthew''s Trait dataset'!L82="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L82="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K82" s="4" t="str" cm="1">
+        <f t="array" ref="K82">_xlfn.IFS('Matthew''s Trait dataset'!L82="LB", "A", 'Matthew''s Trait dataset'!L82="SB", "B", 'Matthew''s Trait dataset'!L82="FCT", "C", 'Matthew''s Trait dataset'!L82="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L82" s="4" cm="1">
         <f t="array" ref="L82">_xlfn.IFS('Matthew''s Trait dataset'!N82="High", 1, 'Matthew''s Trait dataset'!N82="Low", 0)</f>
@@ -22025,9 +22025,9 @@
         <f t="array" ref="J83">_xlfn.IFS('Matthew''s Trait dataset'!K83="High", 1, 'Matthew''s Trait dataset'!K83="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K83" s="4" t="e" cm="1">
-        <f t="array" ref="K83">_xlfn.IFS('Matthew''s Trait dataset'!L83="Long Baleen", "A", 'Matthew''s Trait dataset'!L83="Short Baleen", "B", 'Matthew''s Trait dataset'!L83="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L83="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K83" s="4" t="str" cm="1">
+        <f t="array" ref="K83">_xlfn.IFS('Matthew''s Trait dataset'!L83="LB", "A", 'Matthew''s Trait dataset'!L83="SB", "B", 'Matthew''s Trait dataset'!L83="FCT", "C", 'Matthew''s Trait dataset'!L83="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L83" s="4" cm="1">
         <f t="array" ref="L83">_xlfn.IFS('Matthew''s Trait dataset'!N83="High", 1, 'Matthew''s Trait dataset'!N83="Low", 0)</f>
@@ -22101,9 +22101,9 @@
         <f t="array" ref="J84">_xlfn.IFS('Matthew''s Trait dataset'!K84="High", 1, 'Matthew''s Trait dataset'!K84="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K84" s="4" t="e" cm="1">
-        <f t="array" ref="K84">_xlfn.IFS('Matthew''s Trait dataset'!L84="Long Baleen", "A", 'Matthew''s Trait dataset'!L84="Short Baleen", "B", 'Matthew''s Trait dataset'!L84="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L84="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K84" s="4" t="str" cm="1">
+        <f t="array" ref="K84">_xlfn.IFS('Matthew''s Trait dataset'!L84="LB", "A", 'Matthew''s Trait dataset'!L84="SB", "B", 'Matthew''s Trait dataset'!L84="FCT", "C", 'Matthew''s Trait dataset'!L84="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L84" s="4" cm="1">
         <f t="array" ref="L84">_xlfn.IFS('Matthew''s Trait dataset'!N84="High", 1, 'Matthew''s Trait dataset'!N84="Low", 0)</f>
@@ -22177,9 +22177,9 @@
         <f t="array" ref="J85">_xlfn.IFS('Matthew''s Trait dataset'!K85="High", 1, 'Matthew''s Trait dataset'!K85="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K85" s="4" t="e" cm="1">
-        <f t="array" ref="K85">_xlfn.IFS('Matthew''s Trait dataset'!L85="Long Baleen", "A", 'Matthew''s Trait dataset'!L85="Short Baleen", "B", 'Matthew''s Trait dataset'!L85="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L85="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K85" s="4" t="str" cm="1">
+        <f t="array" ref="K85">_xlfn.IFS('Matthew''s Trait dataset'!L85="LB", "A", 'Matthew''s Trait dataset'!L85="SB", "B", 'Matthew''s Trait dataset'!L85="FCT", "C", 'Matthew''s Trait dataset'!L85="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L85" s="4" cm="1">
         <f t="array" ref="L85">_xlfn.IFS('Matthew''s Trait dataset'!N85="High", 1, 'Matthew''s Trait dataset'!N85="Low", 0)</f>
@@ -22253,9 +22253,9 @@
         <f t="array" ref="J86">_xlfn.IFS('Matthew''s Trait dataset'!K86="High", 1, 'Matthew''s Trait dataset'!K86="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K86" s="4" t="e" cm="1">
-        <f t="array" ref="K86">_xlfn.IFS('Matthew''s Trait dataset'!L86="Long Baleen", "A", 'Matthew''s Trait dataset'!L86="Short Baleen", "B", 'Matthew''s Trait dataset'!L86="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L86="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K86" s="4" t="str" cm="1">
+        <f t="array" ref="K86">_xlfn.IFS('Matthew''s Trait dataset'!L86="LB", "A", 'Matthew''s Trait dataset'!L86="SB", "B", 'Matthew''s Trait dataset'!L86="FCT", "C", 'Matthew''s Trait dataset'!L86="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L86" s="4" cm="1">
         <f t="array" ref="L86">_xlfn.IFS('Matthew''s Trait dataset'!N86="High", 1, 'Matthew''s Trait dataset'!N86="Low", 0)</f>
@@ -22329,9 +22329,9 @@
         <f t="array" ref="J87">_xlfn.IFS('Matthew''s Trait dataset'!K87="High", 1, 'Matthew''s Trait dataset'!K87="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K87" s="4" t="e" cm="1">
-        <f t="array" ref="K87">_xlfn.IFS('Matthew''s Trait dataset'!L87="Long Baleen", "A", 'Matthew''s Trait dataset'!L87="Short Baleen", "B", 'Matthew''s Trait dataset'!L87="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L87="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K87" s="4" t="str" cm="1">
+        <f t="array" ref="K87">_xlfn.IFS('Matthew''s Trait dataset'!L87="LB", "A", 'Matthew''s Trait dataset'!L87="SB", "B", 'Matthew''s Trait dataset'!L87="FCT", "C", 'Matthew''s Trait dataset'!L87="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L87" s="4" cm="1">
         <f t="array" ref="L87">_xlfn.IFS('Matthew''s Trait dataset'!N87="High", 1, 'Matthew''s Trait dataset'!N87="Low", 0)</f>
@@ -22405,9 +22405,9 @@
         <f t="array" ref="J88">_xlfn.IFS('Matthew''s Trait dataset'!K88="High", 1, 'Matthew''s Trait dataset'!K88="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K88" s="4" t="e" cm="1">
-        <f t="array" ref="K88">_xlfn.IFS('Matthew''s Trait dataset'!L88="Long Baleen", "A", 'Matthew''s Trait dataset'!L88="Short Baleen", "B", 'Matthew''s Trait dataset'!L88="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L88="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K88" s="4" t="str" cm="1">
+        <f t="array" ref="K88">_xlfn.IFS('Matthew''s Trait dataset'!L88="LB", "A", 'Matthew''s Trait dataset'!L88="SB", "B", 'Matthew''s Trait dataset'!L88="FCT", "C", 'Matthew''s Trait dataset'!L88="NFCT", "D")</f>
+        <v>C</v>
       </c>
       <c r="L88" s="4" cm="1">
         <f t="array" ref="L88">_xlfn.IFS('Matthew''s Trait dataset'!N88="High", 1, 'Matthew''s Trait dataset'!N88="Low", 0)</f>
@@ -22481,9 +22481,9 @@
         <f t="array" ref="J89">_xlfn.IFS('Matthew''s Trait dataset'!K89="High", 1, 'Matthew''s Trait dataset'!K89="Low", 0)</f>
         <v>1</v>
       </c>
-      <c r="K89" s="4" t="e" cm="1">
-        <f t="array" ref="K89">_xlfn.IFS('Matthew''s Trait dataset'!L89="Long Baleen", "A", 'Matthew''s Trait dataset'!L89="Short Baleen", "B", 'Matthew''s Trait dataset'!L89="Functional Calcareous Teeth", "C", 'Matthew''s Trait dataset'!L89="Non Functional Calcareous Teeth", "D")</f>
-        <v>#N/A</v>
+      <c r="K89" s="4" t="str" cm="1">
+        <f t="array" ref="K89">_xlfn.IFS('Matthew''s Trait dataset'!L89="LB", "A", 'Matthew''s Trait dataset'!L89="SB", "B", 'Matthew''s Trait dataset'!L89="FCT", "C", 'Matthew''s Trait dataset'!L89="NFCT", "D")</f>
+        <v>D</v>
       </c>
       <c r="L89" s="4" cm="1">
         <f t="array" ref="L89">_xlfn.IFS('Matthew''s Trait dataset'!N89="High", 1, 'Matthew''s Trait dataset'!N89="Low", 0)</f>
@@ -22568,10 +22568,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>422</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -22580,11 +22580,11 @@
       <c r="D2" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="31">
         <f>(1/88)*100</f>
         <v>1.1363636363636365</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="25" t="s">
         <v>576</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -22592,55 +22592,55 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="16" t="s">
         <v>588</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="15" t="s">
         <v>589</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="15" t="s">
         <v>594</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="22"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="25" t="s">
         <v>460</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -22649,11 +22649,11 @@
       <c r="D6" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="31">
         <f>5/88 * 100</f>
         <v>5.6818181818181817</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="25" t="s">
         <v>577</v>
       </c>
       <c r="G6" s="17" t="s">
@@ -22661,55 +22661,55 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="15" t="s">
         <v>563</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="15" t="s">
         <v>562</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="15" t="s">
         <v>564</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="25" t="s">
         <v>416</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -22721,7 +22721,7 @@
       <c r="E10" s="28">
         <v>6.8</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="25" t="s">
         <v>578</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -22729,8 +22729,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="15" t="s">
         <v>570</v>
       </c>
@@ -22738,14 +22738,14 @@
         <v>573</v>
       </c>
       <c r="E11" s="29"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="17" t="s">
         <v>569</v>
       </c>
@@ -22753,16 +22753,16 @@
         <v>574</v>
       </c>
       <c r="E12" s="30"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="22" t="s">
         <v>463</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -22771,10 +22771,10 @@
       <c r="D13" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="24">
         <v>0</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="22" t="s">
         <v>493</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -22782,55 +22782,55 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="15" t="s">
         <v>423</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="16" t="s">
         <v>424</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="27"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="22" t="s">
         <v>418</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -22839,11 +22839,11 @@
       <c r="D17" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="23">
         <f>8/88*100</f>
         <v>9.0909090909090917</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="22" t="s">
         <v>495</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -22851,85 +22851,85 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="16" t="s">
         <v>239</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="16" t="s">
         <v>428</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="16" t="s">
         <v>242</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="16" t="s">
         <v>429</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="16" t="s">
         <v>243</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="15" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="22" t="s">
         <v>465</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -22938,11 +22938,11 @@
       <c r="D23" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="23">
         <f>20/88*100</f>
         <v>22.727272727272727</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="22" t="s">
         <v>579</v>
       </c>
       <c r="G23" s="16" t="s">
@@ -22950,40 +22950,40 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="16" t="s">
         <v>215</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="22" t="s">
         <v>466</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -22992,11 +22992,11 @@
       <c r="D26" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="23">
         <f>24/88*100</f>
         <v>27.27272727272727</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="22" t="s">
         <v>491</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -23004,55 +23004,55 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="16" t="s">
         <v>430</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="16" t="s">
         <v>431</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="16" t="s">
         <v>432</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="22" t="s">
         <v>459</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -23061,11 +23061,11 @@
       <c r="D30" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="23">
         <f>2/88*100</f>
         <v>2.2727272727272729</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="22" t="s">
         <v>492</v>
       </c>
       <c r="G30" s="16" t="s">
@@ -23073,67 +23073,83 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="15" t="s">
         <v>434</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="16" t="s">
         <v>435</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="16" t="s">
         <v>437</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="18" t="s">
         <v>436</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="18" t="s">
         <v>556</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="E30:E34"/>
@@ -23150,22 +23166,6 @@
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MatthewTuck_Honours/raw_data/Matthew's Trait Database (the important copy).xlsx
+++ b/MatthewTuck_Honours/raw_data/Matthew's Trait Database (the important copy).xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/292c67f149de0640/Documents/GitHub/Matthew-Tuck-honours/MatthewTuck_Honours/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3506" documentId="8_{A53AC4EE-27A7-4A1A-BDA4-E4ED5F6CBDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A04ABF3-DC87-409E-9305-743D862A6484}"/>
+  <xr:revisionPtr revIDLastSave="3653" documentId="8_{A53AC4EE-27A7-4A1A-BDA4-E4ED5F6CBDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC502AF8-67FD-4A42-AD36-28BF742AAE16}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{43DB4CFE-BFCC-4DF0-B966-D66D5A42FD2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{43DB4CFE-BFCC-4DF0-B966-D66D5A42FD2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Matthew's Trait dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="Fixes for column writing" sheetId="5" r:id="rId3"/>
-    <sheet name="R_Ready_data" sheetId="4" r:id="rId4"/>
-    <sheet name="Updated Trait Descriptions" sheetId="3" r:id="rId5"/>
-    <sheet name="Random Work" sheetId="2" r:id="rId6"/>
+    <sheet name="family_proportions" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Fixes for column writing" sheetId="5" r:id="rId4"/>
+    <sheet name="R_Ready_data" sheetId="4" r:id="rId5"/>
+    <sheet name="Updated Trait Descriptions" sheetId="3" r:id="rId6"/>
+    <sheet name="Random Work" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Matthew''s Trait dataset'!$A$1:$A$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Matthew''s Trait dataset'!$C$1:$C$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$G$1:$G$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="620">
   <si>
     <t>species_name</t>
   </si>
@@ -4479,6 +4481,27 @@
   </si>
   <si>
     <t>Non-Migratory designation based on speculation in the cited source that many beaked whales are non migratory</t>
+  </si>
+  <si>
+    <t>no migration stuff</t>
+  </si>
+  <si>
+    <t>with migration stuff</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Not Unique</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Family_Counts</t>
+  </si>
+  <si>
+    <t>Family_Proportions</t>
   </si>
 </sst>
 </file>
@@ -4712,7 +4735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4753,14 +4776,8 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4780,6 +4797,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4787,6 +4807,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5132,7 +5158,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D104" sqref="D104"/>
+      <selection pane="topRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5677,7 +5703,7 @@
         <v>498</v>
       </c>
       <c r="J7" s="14">
-        <f t="shared" si="0"/>
+        <f>G7/D7</f>
         <v>5521.4723926380366</v>
       </c>
       <c r="K7" t="s">
@@ -12481,6 +12507,10 @@
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L92">
+        <f>COUNTIF(L2:L89, "SB")</f>
+        <v>11</v>
+      </c>
       <c r="Q92">
         <f>16/88</f>
         <v>0.18181818181818182</v>
@@ -12494,6 +12524,10 @@
       <c r="B93" t="s">
         <v>316</v>
       </c>
+      <c r="L93">
+        <f>11/88</f>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
@@ -12516,7 +12550,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A97" xr:uid="{DBD1AE5A-DEB3-4CAB-B20E-40E6200E4806}"/>
+  <autoFilter ref="C1:C97" xr:uid="{DBD1AE5A-DEB3-4CAB-B20E-40E6200E4806}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E58" r:id="rId1" xr:uid="{77CD4408-C390-4483-97B1-75F24F4ED350}"/>
@@ -12527,19 +12561,302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E19BF13-0E06-40AD-9266-0D598D58206B}">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EA7B22-DF74-48A3-8F9C-FB766C969D5A}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.11363636363636363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.1363636363636364E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>0.40909090909090912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2.2727272727272728E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.1363636363636364E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2.2727272727272728E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>7.9545454545454544E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.1363636363636364E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.1363636363636364E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f>SUM(B13:B23)</f>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E19BF13-0E06-40AD-9266-0D598D58206B}">
+  <dimension ref="A1:P89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
@@ -12550,7 +12867,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>54</v>
       </c>
@@ -12560,8 +12877,17 @@
       <c r="C2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="21">
+        <v>4.6082949999999998E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
@@ -12571,8 +12897,17 @@
       <c r="C3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="21">
+        <v>3.354037E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>192</v>
       </c>
@@ -12582,8 +12917,17 @@
       <c r="C4" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="21">
+        <v>3.354037E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>35</v>
       </c>
@@ -12593,8 +12937,17 @@
       <c r="C5" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>41</v>
       </c>
@@ -12604,8 +12957,17 @@
       <c r="C6" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="21">
+        <v>4.6082949999999998E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>79</v>
       </c>
@@ -12615,8 +12977,17 @@
       <c r="C7" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>46</v>
       </c>
@@ -12626,8 +12997,17 @@
       <c r="C8" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1.8633540000000001E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>63</v>
       </c>
@@ -12637,8 +13017,27 @@
       <c r="C9" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="N9" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
@@ -12648,8 +13047,26 @@
       <c r="C10" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.16149068</v>
+      </c>
+      <c r="G10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J10" t="s">
+        <v>615</v>
+      </c>
+      <c r="K10" t="s">
+        <v>616</v>
+      </c>
+      <c r="O10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>30</v>
       </c>
@@ -12659,8 +13076,36 @@
       <c r="C11" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="21">
+        <v>4.9769590000000002E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I11" t="s">
+        <v>557</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>557</v>
+      </c>
+      <c r="O11">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <f>25-16</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -12670,8 +13115,38 @@
       <c r="C12" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="21">
+        <v>7.6976669999999997E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12" t="s">
+        <v>617</v>
+      </c>
+      <c r="J12">
+        <v>43</v>
+      </c>
+      <c r="K12">
+        <f>COUNTIF(F:F, 0)</f>
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>617</v>
+      </c>
+      <c r="O12">
+        <f>31+16</f>
+        <v>47</v>
+      </c>
+      <c r="P12">
+        <f>88-O12</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>75</v>
       </c>
@@ -12681,8 +13156,17 @@
       <c r="C13" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="21">
+        <v>6.3616069999999997E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
@@ -12692,8 +13176,23 @@
       <c r="C14" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="21">
+        <v>4.6082949999999998E-2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+      <c r="J14">
+        <v>0.6</v>
+      </c>
+      <c r="K14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>8</v>
       </c>
@@ -12703,8 +13202,23 @@
       <c r="C15" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>287</v>
+      </c>
+      <c r="J15">
+        <v>0.48863636363636398</v>
+      </c>
+      <c r="K15">
+        <v>0.51136363636363602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>57</v>
       </c>
@@ -12714,8 +13228,17 @@
       <c r="C16" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>19</v>
       </c>
@@ -12725,8 +13248,17 @@
       <c r="C17" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>7</v>
       </c>
@@ -12736,8 +13268,17 @@
       <c r="C18" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
         <v>9</v>
       </c>
@@ -12747,8 +13288,17 @@
       <c r="C19" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="21">
+        <v>5.3779609999999999E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>42</v>
       </c>
@@ -12758,8 +13308,17 @@
       <c r="C20" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="21">
+        <v>4.6406339999999997E-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
         <v>45</v>
       </c>
@@ -12769,8 +13328,17 @@
       <c r="C21" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.18894009</v>
+      </c>
+      <c r="G21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>55</v>
       </c>
@@ -12780,8 +13348,17 @@
       <c r="C22" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>193</v>
       </c>
@@ -12791,8 +13368,17 @@
       <c r="C23" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="21">
+        <v>6.265664E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>32</v>
       </c>
@@ -12802,8 +13388,17 @@
       <c r="C24" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>33</v>
       </c>
@@ -12813,8 +13408,17 @@
       <c r="C25" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="21">
+        <v>3.3179720000000003E-2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>68</v>
       </c>
@@ -12824,8 +13428,17 @@
       <c r="C26" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
         <v>69</v>
       </c>
@@ -12835,8 +13448,17 @@
       <c r="C27" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>84</v>
       </c>
@@ -12846,8 +13468,17 @@
       <c r="C28" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="21">
+        <v>1.3824879999999999E-2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>62</v>
       </c>
@@ -12857,8 +13488,17 @@
       <c r="C29" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
         <v>13</v>
       </c>
@@ -12868,8 +13508,17 @@
       <c r="C30" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0.11338566</v>
+      </c>
+      <c r="G30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>21</v>
       </c>
@@ -12879,8 +13528,17 @@
       <c r="C31" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="21">
+        <v>7.0967740000000001E-2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
         <v>76</v>
       </c>
@@ -12890,8 +13548,17 @@
       <c r="C32" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="21">
+        <v>4.9769590000000002E-2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
         <v>64</v>
       </c>
@@ -12901,8 +13568,17 @@
       <c r="C33" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="21">
+        <v>4.9769590000000002E-2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
         <v>31</v>
       </c>
@@ -12912,8 +13588,17 @@
       <c r="C34" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
         <v>39</v>
       </c>
@@ -12923,8 +13608,17 @@
       <c r="C35" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="21">
+        <v>1.198157E-2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
         <v>191</v>
       </c>
@@ -12934,8 +13628,17 @@
       <c r="C36" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="21">
+        <v>2.1198160000000001E-2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
@@ -12945,8 +13648,17 @@
       <c r="C37" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>24</v>
       </c>
@@ -12956,8 +13668,17 @@
       <c r="C38" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
         <v>26</v>
       </c>
@@ -12967,8 +13688,17 @@
       <c r="C39" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="21">
+        <v>8.8510400000000003E-2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
         <v>77</v>
       </c>
@@ -12978,8 +13708,17 @@
       <c r="C40" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="21">
+        <v>6.265664E-2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
         <v>5</v>
       </c>
@@ -12989,8 +13728,17 @@
       <c r="C41" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="21">
+        <v>3.2581449999999998E-2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
         <v>20</v>
       </c>
@@ -13000,8 +13748,17 @@
       <c r="C42" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="21">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
         <v>28</v>
       </c>
@@ -13011,8 +13768,17 @@
       <c r="C43" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="21">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
         <v>40</v>
       </c>
@@ -13022,8 +13788,17 @@
       <c r="C44" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="21">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
         <v>71</v>
       </c>
@@ -13033,8 +13808,17 @@
       <c r="C45" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="21">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
         <v>65</v>
       </c>
@@ -13044,8 +13828,17 @@
       <c r="C46" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="21">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>83</v>
       </c>
@@ -13055,16 +13848,493 @@
       <c r="C47" t="s">
         <v>286</v>
       </c>
+      <c r="E47" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="21">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="21">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="21">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="21">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="21">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" s="21">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E53" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="21">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="21">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E55" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="21">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="21">
+        <v>5.7915059999999997E-2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E57" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="21">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="21">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E59" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="21">
+        <v>0.19262673</v>
+      </c>
+      <c r="G59" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="21">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E61" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="21">
+        <v>0.14285713999999999</v>
+      </c>
+      <c r="G61" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="21">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E63" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="21">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E64" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="21">
+        <v>0.14285713999999999</v>
+      </c>
+      <c r="G64" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E65" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="21">
+        <v>1.3824879999999999E-2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E66" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="21">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E67" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="21">
+        <v>6.265664E-2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E68" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="21">
+        <v>4.6082949999999998E-2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E69" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="21">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E70" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="21">
+        <v>4.7004610000000002E-2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E71" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" s="21">
+        <v>0.11680836</v>
+      </c>
+      <c r="G71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E72" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="21">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E73" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="21">
+        <v>5.3779609999999999E-2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E74" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" s="21">
+        <v>1.3824879999999999E-2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E75" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="21">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E76" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="21">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E77" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F77" s="21">
+        <v>2.1198160000000001E-2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E78" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F78" s="21">
+        <v>4.6082949999999998E-2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E79" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E80" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F80" s="21">
+        <v>1.3824879999999999E-2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E81" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F81" s="21">
+        <v>4.1505790000000001E-2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E82" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F82" s="21">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E83" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="21">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E84" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="21">
+        <v>4.1505790000000001E-2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E85" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F85" s="21">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E86" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F86" s="21">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E87" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F87" s="21">
+        <v>3.3179720000000003E-2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E88" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F88" s="21">
+        <v>7.9241069999999997E-2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E89" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F89" s="21">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>286</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G89" xr:uid="{7E19BF13-0E06-40AD-9266-0D598D58206B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C89">
     <sortCondition ref="C1:C89"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="N9:P9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D931DF-7FEA-4998-9BBD-FCC96FF11D41}">
   <dimension ref="A1:L89"/>
   <sheetViews>
@@ -15739,11 +17009,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D1FF8E-A6B0-4472-BC16-941E3BA8D8EB}">
   <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
@@ -22525,7 +23795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387726D2-86FD-46CA-A8D3-40DDC379D84C}">
   <dimension ref="A1:G34"/>
   <sheetViews>
@@ -22568,10 +23838,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>422</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -22580,11 +23850,11 @@
       <c r="D2" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <f>(1/88)*100</f>
         <v>1.1363636363636365</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>576</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -22592,55 +23862,55 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="16" t="s">
         <v>588</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="15" t="s">
         <v>589</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="15" t="s">
         <v>594</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>460</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -22649,11 +23919,11 @@
       <c r="D6" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <f>5/88 * 100</f>
         <v>5.6818181818181817</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="23" t="s">
         <v>577</v>
       </c>
       <c r="G6" s="17" t="s">
@@ -22661,55 +23931,55 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="15" t="s">
         <v>563</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="15" t="s">
         <v>562</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="15" t="s">
         <v>564</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>416</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -22718,10 +23988,10 @@
       <c r="D10" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>6.8</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="23" t="s">
         <v>578</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -22729,40 +23999,40 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="15" t="s">
         <v>570</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="17" t="s">
         <v>569</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="29" t="s">
         <v>463</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -22771,10 +24041,10 @@
       <c r="D13" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="34">
         <v>0</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="29" t="s">
         <v>493</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -22782,55 +24052,55 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="15" t="s">
         <v>423</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="22"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="16" t="s">
         <v>424</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="29" t="s">
         <v>418</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -22839,11 +24109,11 @@
       <c r="D17" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="33">
         <f>8/88*100</f>
         <v>9.0909090909090917</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="29" t="s">
         <v>495</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -22851,85 +24121,85 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="16" t="s">
         <v>239</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="22"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="16" t="s">
         <v>428</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="16" t="s">
         <v>242</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="16" t="s">
         <v>429</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="15" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="16" t="s">
         <v>243</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="15" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="29" t="s">
         <v>465</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -22938,11 +24208,11 @@
       <c r="D23" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="33">
         <f>20/88*100</f>
         <v>22.727272727272727</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="29" t="s">
         <v>579</v>
       </c>
       <c r="G23" s="16" t="s">
@@ -22950,40 +24220,40 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="16" t="s">
         <v>215</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="29" t="s">
         <v>466</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -22992,11 +24262,11 @@
       <c r="D26" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="33">
         <f>24/88*100</f>
         <v>27.27272727272727</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="29" t="s">
         <v>491</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -23004,55 +24274,55 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="16" t="s">
         <v>430</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="22"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="16" t="s">
         <v>431</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="16" t="s">
         <v>432</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="22"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="29" t="s">
         <v>459</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -23061,11 +24331,11 @@
       <c r="D30" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="33">
         <f>2/88*100</f>
         <v>2.2727272727272729</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="29" t="s">
         <v>492</v>
       </c>
       <c r="G30" s="16" t="s">
@@ -23073,67 +24343,83 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="15" t="s">
         <v>434</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="22"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="29"/>
       <c r="G31" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="16" t="s">
         <v>435</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="22"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="29"/>
       <c r="G32" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="16" t="s">
         <v>437</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="29"/>
       <c r="G33" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="18" t="s">
         <v>436</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="22"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="29"/>
       <c r="G34" s="18" t="s">
         <v>556</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="E10:E12"/>
@@ -23150,28 +24436,12 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F17:F22"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="E23:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02DB950-D1E6-4E64-AA00-F6CF4ECBC35D}">
   <dimension ref="B2:M89"/>
   <sheetViews>
